--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Slot" sheetId="1" r:id="rId1"/>
-    <sheet name="Articulation" sheetId="2" r:id="rId2"/>
+    <sheet name="Articulation" sheetId="4" r:id="rId2"/>
     <sheet name="List(DO NOT MODIFY!)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="139">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -422,11 +422,26 @@
     <t>127:G8</t>
   </si>
   <si>
-    <t>NONE</t>
+    <t>Direction</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NONE</t>
+    <t>Attribute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Power Chord</t>
+  </si>
+  <si>
+    <t>Power Chord</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Power Code</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -434,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +465,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +485,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,6 +542,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,7 +868,7 @@
     <col min="1" max="2" width="35.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="50.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -847,10 +889,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3">
         <v>120</v>
@@ -859,9 +905,9 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
         <v>120</v>
@@ -870,9 +916,9 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
         <v>120</v>
@@ -881,9 +927,9 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
         <v>120</v>
@@ -892,9 +938,9 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
         <v>120</v>
@@ -903,9 +949,9 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
         <v>120</v>
@@ -914,9 +960,9 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3">
         <v>120</v>
@@ -925,9 +971,9 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>120</v>
@@ -936,9 +982,9 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
         <v>120</v>
@@ -947,9 +993,9 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
         <v>120</v>
@@ -958,9 +1004,9 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3">
         <v>120</v>
@@ -969,9 +1015,9 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3">
         <v>120</v>
@@ -980,9 +1026,9 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D14" s="3">
         <v>120</v>
@@ -991,9 +1037,9 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3">
         <v>120</v>
@@ -1002,9 +1048,9 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3">
         <v>120</v>
@@ -1013,9 +1059,9 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
         <v>120</v>
@@ -1024,9 +1070,9 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3">
         <v>120</v>
@@ -1035,9 +1081,9 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3">
         <v>120</v>
@@ -1046,9 +1092,9 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
         <v>120</v>
@@ -1057,9 +1103,9 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
         <v>120</v>
@@ -1068,9 +1114,9 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
         <v>120</v>
@@ -1079,9 +1125,9 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
         <v>120</v>
@@ -1090,9 +1136,9 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3">
         <v>120</v>
@@ -1101,9 +1147,9 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
         <v>120</v>
@@ -1112,9 +1158,9 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3">
         <v>120</v>
@@ -1123,9 +1169,9 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
         <v>120</v>
@@ -1134,9 +1180,9 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
         <v>120</v>
@@ -1145,9 +1191,9 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3">
         <v>120</v>
@@ -1156,9 +1202,9 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D30" s="3">
         <v>120</v>
@@ -1167,9 +1213,9 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D31" s="3">
         <v>120</v>
@@ -1178,9 +1224,9 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D32" s="3">
         <v>120</v>
@@ -1189,9 +1235,9 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D33" s="3">
         <v>120</v>
@@ -1200,9 +1246,9 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D34" s="3">
         <v>120</v>
@@ -1211,9 +1257,9 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3">
         <v>120</v>
@@ -1222,9 +1268,9 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D36" s="3">
         <v>120</v>
@@ -1233,9 +1279,9 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D37" s="3">
         <v>120</v>
@@ -1244,9 +1290,9 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D38" s="3">
         <v>120</v>
@@ -1255,9 +1301,9 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
         <v>120</v>
@@ -1266,9 +1312,9 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3">
         <v>120</v>
@@ -1277,9 +1323,9 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D41" s="3">
         <v>120</v>
@@ -1288,9 +1334,9 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D42" s="3">
         <v>120</v>
@@ -1299,9 +1345,9 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D43" s="3">
         <v>120</v>
@@ -1310,9 +1356,9 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D44" s="3">
         <v>120</v>
@@ -1321,9 +1367,9 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D45" s="3">
         <v>120</v>
@@ -1332,9 +1378,9 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D46" s="3">
         <v>120</v>
@@ -1343,9 +1389,9 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D47" s="3">
         <v>120</v>
@@ -1354,9 +1400,9 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D48" s="3">
         <v>120</v>
@@ -1365,9 +1411,9 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D49" s="3">
         <v>120</v>
@@ -1376,9 +1422,9 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D50" s="3">
         <v>120</v>
@@ -1387,9 +1433,9 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D51" s="3">
         <v>120</v>
@@ -1398,9 +1444,9 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D52" s="3">
         <v>120</v>
@@ -1409,9 +1455,9 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D53" s="3">
         <v>120</v>
@@ -1420,9 +1466,9 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D54" s="3">
         <v>120</v>
@@ -1431,9 +1477,9 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D55" s="3">
         <v>120</v>
@@ -1442,9 +1488,9 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D56" s="3">
         <v>120</v>
@@ -1453,9 +1499,9 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D57" s="3">
         <v>120</v>
@@ -1464,9 +1510,9 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D58" s="3">
         <v>120</v>
@@ -1475,9 +1521,9 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D59" s="3">
         <v>120</v>
@@ -1486,9 +1532,9 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D60" s="3">
         <v>120</v>
@@ -1497,9 +1543,9 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D61" s="3">
         <v>120</v>
@@ -1508,9 +1554,9 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D62" s="3">
         <v>120</v>
@@ -1519,9 +1565,9 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D63" s="3">
         <v>120</v>
@@ -1530,9 +1576,9 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D64" s="3">
         <v>120</v>
@@ -1541,9 +1587,9 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D65" s="3">
         <v>120</v>
@@ -1552,9 +1598,9 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D66" s="3">
         <v>120</v>
@@ -1563,9 +1609,9 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="B67" s="6"/>
       <c r="C67" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D67" s="3">
         <v>120</v>
@@ -1574,9 +1620,9 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="6"/>
       <c r="C68" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D68" s="3">
         <v>120</v>
@@ -1585,9 +1631,9 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D69" s="3">
         <v>120</v>
@@ -1596,9 +1642,9 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D70" s="3">
         <v>120</v>
@@ -1607,9 +1653,9 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D71" s="3">
         <v>120</v>
@@ -1618,9 +1664,9 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D72" s="3">
         <v>120</v>
@@ -1629,9 +1675,9 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D73" s="3">
         <v>120</v>
@@ -1640,9 +1686,9 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="6"/>
       <c r="C74" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D74" s="3">
         <v>120</v>
@@ -1651,9 +1697,9 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D75" s="3">
         <v>120</v>
@@ -1662,9 +1708,9 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D76" s="3">
         <v>120</v>
@@ -1673,9 +1719,9 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D77" s="3">
         <v>120</v>
@@ -1684,9 +1730,9 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D78" s="3">
         <v>120</v>
@@ -1695,9 +1741,9 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D79" s="3">
         <v>120</v>
@@ -1706,9 +1752,9 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D80" s="3">
         <v>120</v>
@@ -1717,9 +1763,9 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D81" s="3">
         <v>120</v>
@@ -1728,9 +1774,9 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="B82" s="6"/>
       <c r="C82" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D82" s="3">
         <v>120</v>
@@ -1739,9 +1785,9 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="B83" s="6"/>
       <c r="C83" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D83" s="3">
         <v>120</v>
@@ -1750,9 +1796,9 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="B84" s="6"/>
       <c r="C84" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D84" s="3">
         <v>120</v>
@@ -1761,9 +1807,9 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D85" s="3">
         <v>120</v>
@@ -1772,9 +1818,9 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="B86" s="6"/>
       <c r="C86" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D86" s="3">
         <v>120</v>
@@ -1783,9 +1829,9 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="B87" s="6"/>
       <c r="C87" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D87" s="3">
         <v>120</v>
@@ -1794,9 +1840,9 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D88" s="3">
         <v>120</v>
@@ -1805,9 +1851,9 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D89" s="3">
         <v>120</v>
@@ -1816,9 +1862,9 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D90" s="3">
         <v>120</v>
@@ -1827,9 +1873,9 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="B91" s="6"/>
       <c r="C91" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D91" s="3">
         <v>120</v>
@@ -1838,9 +1884,9 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="6"/>
       <c r="C92" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D92" s="3">
         <v>120</v>
@@ -1849,9 +1895,9 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="B93" s="6"/>
       <c r="C93" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D93" s="3">
         <v>120</v>
@@ -1860,9 +1906,9 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D94" s="3">
         <v>120</v>
@@ -1871,9 +1917,9 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="B95" s="6"/>
       <c r="C95" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D95" s="3">
         <v>120</v>
@@ -1882,9 +1928,9 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D96" s="3">
         <v>120</v>
@@ -1893,9 +1939,9 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D97" s="3">
         <v>120</v>
@@ -1904,9 +1950,9 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D98" s="3">
         <v>120</v>
@@ -1915,9 +1961,9 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D99" s="3">
         <v>120</v>
@@ -1926,9 +1972,9 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D100" s="3">
         <v>120</v>
@@ -1937,9 +1983,9 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D101" s="3">
         <v>120</v>
@@ -1948,9 +1994,9 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D102" s="3">
         <v>120</v>
@@ -1959,9 +2005,9 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D103" s="3">
         <v>120</v>
@@ -1970,9 +2016,9 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D104" s="3">
         <v>120</v>
@@ -1981,9 +2027,9 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D105" s="3">
         <v>120</v>
@@ -1992,9 +2038,9 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D106" s="3">
         <v>120</v>
@@ -2003,9 +2049,9 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D107" s="3">
         <v>120</v>
@@ -2014,9 +2060,9 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D108" s="3">
         <v>120</v>
@@ -2025,9 +2071,9 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D109" s="3">
         <v>120</v>
@@ -2036,9 +2082,9 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D110" s="3">
         <v>120</v>
@@ -2047,9 +2093,9 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D111" s="3">
         <v>120</v>
@@ -2058,9 +2104,9 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D112" s="3">
         <v>120</v>
@@ -2069,9 +2115,9 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D113" s="3">
         <v>120</v>
@@ -2080,9 +2126,9 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D114" s="3">
         <v>120</v>
@@ -2091,9 +2137,9 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D115" s="3">
         <v>120</v>
@@ -2102,9 +2148,9 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D116" s="3">
         <v>120</v>
@@ -2113,9 +2159,9 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="B117" s="6"/>
       <c r="C117" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D117" s="3">
         <v>120</v>
@@ -2124,9 +2170,9 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D118" s="3">
         <v>120</v>
@@ -2135,9 +2181,9 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D119" s="3">
         <v>120</v>
@@ -2146,9 +2192,9 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D120" s="3">
         <v>120</v>
@@ -2157,9 +2203,9 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D121" s="3">
         <v>120</v>
@@ -2168,9 +2214,9 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="B122" s="6"/>
       <c r="C122" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D122" s="3">
         <v>120</v>
@@ -2179,9 +2225,9 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="B123" s="6"/>
       <c r="C123" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D123" s="3">
         <v>120</v>
@@ -2190,9 +2236,9 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D124" s="3">
         <v>120</v>
@@ -2201,9 +2247,9 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="B125" s="6"/>
       <c r="C125" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D125" s="3">
         <v>120</v>
@@ -2212,9 +2258,9 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="B126" s="6"/>
       <c r="C126" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D126" s="3">
         <v>120</v>
@@ -2223,9 +2269,9 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="B127" s="6"/>
       <c r="C127" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D127" s="3">
         <v>120</v>
@@ -2234,9 +2280,9 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="B128" s="6"/>
       <c r="C128" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D128" s="3">
         <v>120</v>
@@ -2245,9 +2291,9 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="B129" s="6"/>
       <c r="C129" s="2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="D129" s="3">
         <v>120</v>
@@ -2260,10 +2306,16 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'List(DO NOT MODIFY!)'!$A$1:$A$129</xm:f>
+            <xm:f>Articulation!$A$2:$A$129</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B129</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'List(DO NOT MODIFY!)'!$A$1:$A$128</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C129</xm:sqref>
         </x14:dataValidation>
@@ -2275,14 +2327,542 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="35.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="50.625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2291,662 +2871,664 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:A129"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A109" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Template.xlsx
+++ b/Template.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -58,390 +58,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>000:C-2</t>
-  </si>
-  <si>
-    <t>001:C#-2</t>
-  </si>
-  <si>
-    <t>002:D-2</t>
-  </si>
-  <si>
-    <t>003:D#-2</t>
-  </si>
-  <si>
-    <t>004:E-2</t>
-  </si>
-  <si>
-    <t>005:F-2</t>
-  </si>
-  <si>
-    <t>006:F#-2</t>
-  </si>
-  <si>
-    <t>007:G-2</t>
-  </si>
-  <si>
-    <t>008:G#-2</t>
-  </si>
-  <si>
-    <t>009:A-2</t>
-  </si>
-  <si>
-    <t>010:A#-2</t>
-  </si>
-  <si>
-    <t>011:B-2</t>
-  </si>
-  <si>
-    <t>012:C-1</t>
-  </si>
-  <si>
-    <t>013:C#-1</t>
-  </si>
-  <si>
-    <t>014:D-1</t>
-  </si>
-  <si>
-    <t>015:D#-1</t>
-  </si>
-  <si>
-    <t>016:E-1</t>
-  </si>
-  <si>
-    <t>017:F-1</t>
-  </si>
-  <si>
-    <t>018:F#-1</t>
-  </si>
-  <si>
-    <t>019:G-1</t>
-  </si>
-  <si>
-    <t>020:G#-1</t>
-  </si>
-  <si>
-    <t>021:A-1</t>
-  </si>
-  <si>
-    <t>022:A#-1</t>
-  </si>
-  <si>
-    <t>023:B-1</t>
-  </si>
-  <si>
-    <t>024:C0</t>
-  </si>
-  <si>
-    <t>025:C#0</t>
-  </si>
-  <si>
-    <t>026:D0</t>
-  </si>
-  <si>
-    <t>027:D#0</t>
-  </si>
-  <si>
-    <t>028:E0</t>
-  </si>
-  <si>
-    <t>029:F0</t>
-  </si>
-  <si>
-    <t>030:F#0</t>
-  </si>
-  <si>
-    <t>031:G0</t>
-  </si>
-  <si>
-    <t>032:G#0</t>
-  </si>
-  <si>
-    <t>033:A0</t>
-  </si>
-  <si>
-    <t>034:A#0</t>
-  </si>
-  <si>
-    <t>035:B0</t>
-  </si>
-  <si>
-    <t>036:C1</t>
-  </si>
-  <si>
-    <t>037:C#1</t>
-  </si>
-  <si>
-    <t>038:D1</t>
-  </si>
-  <si>
-    <t>039:D#1</t>
-  </si>
-  <si>
-    <t>040:E1</t>
-  </si>
-  <si>
-    <t>041:F1</t>
-  </si>
-  <si>
-    <t>042:F#1</t>
-  </si>
-  <si>
-    <t>043:G1</t>
-  </si>
-  <si>
-    <t>044:G#1</t>
-  </si>
-  <si>
-    <t>045:A1</t>
-  </si>
-  <si>
-    <t>046:A#1</t>
-  </si>
-  <si>
-    <t>047:B1</t>
-  </si>
-  <si>
-    <t>048:C2</t>
-  </si>
-  <si>
-    <t>049:C#2</t>
-  </si>
-  <si>
-    <t>050:D2</t>
-  </si>
-  <si>
-    <t>051:D#2</t>
-  </si>
-  <si>
-    <t>052:E2</t>
-  </si>
-  <si>
-    <t>053:F2</t>
-  </si>
-  <si>
-    <t>054:F#2</t>
-  </si>
-  <si>
-    <t>055:G2</t>
-  </si>
-  <si>
-    <t>056:G#2</t>
-  </si>
-  <si>
-    <t>057:A2</t>
-  </si>
-  <si>
-    <t>058:A#2</t>
-  </si>
-  <si>
-    <t>059:B2</t>
-  </si>
-  <si>
-    <t>060:C3</t>
-  </si>
-  <si>
-    <t>061:C#3</t>
-  </si>
-  <si>
-    <t>062:D3</t>
-  </si>
-  <si>
-    <t>063:D#3</t>
-  </si>
-  <si>
-    <t>064:E3</t>
-  </si>
-  <si>
-    <t>065:F3</t>
-  </si>
-  <si>
-    <t>066:F#3</t>
-  </si>
-  <si>
-    <t>067:G3</t>
-  </si>
-  <si>
-    <t>068:G#3</t>
-  </si>
-  <si>
-    <t>069:A3</t>
-  </si>
-  <si>
-    <t>070:A#3</t>
-  </si>
-  <si>
-    <t>071:B3</t>
-  </si>
-  <si>
-    <t>072:C4</t>
-  </si>
-  <si>
-    <t>073:C#4</t>
-  </si>
-  <si>
-    <t>074:D4</t>
-  </si>
-  <si>
-    <t>075:D#4</t>
-  </si>
-  <si>
-    <t>076:E4</t>
-  </si>
-  <si>
-    <t>077:F4</t>
-  </si>
-  <si>
-    <t>078:F#4</t>
-  </si>
-  <si>
-    <t>079:G4</t>
-  </si>
-  <si>
-    <t>080:G#4</t>
-  </si>
-  <si>
-    <t>081:A4</t>
-  </si>
-  <si>
-    <t>082:A#4</t>
-  </si>
-  <si>
-    <t>083:B4</t>
-  </si>
-  <si>
-    <t>084:C5</t>
-  </si>
-  <si>
-    <t>085:C#5</t>
-  </si>
-  <si>
-    <t>086:D5</t>
-  </si>
-  <si>
-    <t>087:D#5</t>
-  </si>
-  <si>
-    <t>088:E5</t>
-  </si>
-  <si>
-    <t>089:F5</t>
-  </si>
-  <si>
-    <t>090:F#5</t>
-  </si>
-  <si>
-    <t>091:G5</t>
-  </si>
-  <si>
-    <t>092:G#5</t>
-  </si>
-  <si>
-    <t>093:A5</t>
-  </si>
-  <si>
-    <t>094:A#5</t>
-  </si>
-  <si>
-    <t>095:B5</t>
-  </si>
-  <si>
-    <t>096:C6</t>
-  </si>
-  <si>
-    <t>097:C#6</t>
-  </si>
-  <si>
-    <t>098:D6</t>
-  </si>
-  <si>
-    <t>099:D#6</t>
-  </si>
-  <si>
-    <t>100:E6</t>
-  </si>
-  <si>
-    <t>101:F6</t>
-  </si>
-  <si>
-    <t>102:F#6</t>
-  </si>
-  <si>
-    <t>103:G6</t>
-  </si>
-  <si>
-    <t>104:G#6</t>
-  </si>
-  <si>
-    <t>105:A6</t>
-  </si>
-  <si>
-    <t>106:A#6</t>
-  </si>
-  <si>
-    <t>107:B6</t>
-  </si>
-  <si>
-    <t>108:C7</t>
-  </si>
-  <si>
-    <t>109:C#7</t>
-  </si>
-  <si>
-    <t>110:D7</t>
-  </si>
-  <si>
-    <t>111:D#7</t>
-  </si>
-  <si>
-    <t>112:E7</t>
-  </si>
-  <si>
-    <t>113:F7</t>
-  </si>
-  <si>
-    <t>114:F#7</t>
-  </si>
-  <si>
-    <t>115:G7</t>
-  </si>
-  <si>
-    <t>116:G#7</t>
-  </si>
-  <si>
-    <t>117:A7</t>
-  </si>
-  <si>
-    <t>118:A#7</t>
-  </si>
-  <si>
-    <t>119:B7</t>
-  </si>
-  <si>
-    <t>120:C8</t>
-  </si>
-  <si>
-    <t>121:C#8</t>
-  </si>
-  <si>
-    <t>122:D8</t>
-  </si>
-  <si>
-    <t>123:D#8</t>
-  </si>
-  <si>
-    <t>124:E8</t>
-  </si>
-  <si>
-    <t>125:F8</t>
-  </si>
-  <si>
-    <t>126:F#8</t>
-  </si>
-  <si>
-    <t>127:G8</t>
-  </si>
-  <si>
     <t>Direction</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -477,6 +93,394 @@
   </si>
   <si>
     <t>Articulation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-2 (0)</t>
+  </si>
+  <si>
+    <t>C#-2 (1)</t>
+  </si>
+  <si>
+    <t>D-2 (2)</t>
+  </si>
+  <si>
+    <t>D#-2 (3)</t>
+  </si>
+  <si>
+    <t>E-2 (4)</t>
+  </si>
+  <si>
+    <t>F-2 (5)</t>
+  </si>
+  <si>
+    <t>F#-2 (6)</t>
+  </si>
+  <si>
+    <t>G-2 (7)</t>
+  </si>
+  <si>
+    <t>G#-2 (8)</t>
+  </si>
+  <si>
+    <t>A-2 (9)</t>
+  </si>
+  <si>
+    <t>A#-2 (10)</t>
+  </si>
+  <si>
+    <t>B-2 (11)</t>
+  </si>
+  <si>
+    <t>C-1 (12)</t>
+  </si>
+  <si>
+    <t>C#-1 (13)</t>
+  </si>
+  <si>
+    <t>D-1 (14)</t>
+  </si>
+  <si>
+    <t>D#-1 (15)</t>
+  </si>
+  <si>
+    <t>E-1 (16)</t>
+  </si>
+  <si>
+    <t>F-1 (17)</t>
+  </si>
+  <si>
+    <t>F#-1 (18)</t>
+  </si>
+  <si>
+    <t>G-1 (19)</t>
+  </si>
+  <si>
+    <t>G#-1 (20)</t>
+  </si>
+  <si>
+    <t>A-1 (21)</t>
+  </si>
+  <si>
+    <t>A#-1 (22)</t>
+  </si>
+  <si>
+    <t>B-1 (23)</t>
+  </si>
+  <si>
+    <t>C0 (24)</t>
+  </si>
+  <si>
+    <t>C#0 (25)</t>
+  </si>
+  <si>
+    <t>D0 (26)</t>
+  </si>
+  <si>
+    <t>D#0 (27)</t>
+  </si>
+  <si>
+    <t>E0 (28)</t>
+  </si>
+  <si>
+    <t>F0 (29)</t>
+  </si>
+  <si>
+    <t>F#0 (30)</t>
+  </si>
+  <si>
+    <t>G0 (31)</t>
+  </si>
+  <si>
+    <t>G#0 (32)</t>
+  </si>
+  <si>
+    <t>A0 (33)</t>
+  </si>
+  <si>
+    <t>A#0 (34)</t>
+  </si>
+  <si>
+    <t>B0 (35)</t>
+  </si>
+  <si>
+    <t>C1 (36)</t>
+  </si>
+  <si>
+    <t>C#1 (37)</t>
+  </si>
+  <si>
+    <t>D1 (38)</t>
+  </si>
+  <si>
+    <t>D#1 (39)</t>
+  </si>
+  <si>
+    <t>E1 (40)</t>
+  </si>
+  <si>
+    <t>F1 (41)</t>
+  </si>
+  <si>
+    <t>F#1 (42)</t>
+  </si>
+  <si>
+    <t>G1 (43)</t>
+  </si>
+  <si>
+    <t>G#1 (44)</t>
+  </si>
+  <si>
+    <t>A1 (45)</t>
+  </si>
+  <si>
+    <t>A#1 (46)</t>
+  </si>
+  <si>
+    <t>B1 (47)</t>
+  </si>
+  <si>
+    <t>C2 (48)</t>
+  </si>
+  <si>
+    <t>C#2 (49)</t>
+  </si>
+  <si>
+    <t>D2 (50)</t>
+  </si>
+  <si>
+    <t>D#2 (51)</t>
+  </si>
+  <si>
+    <t>E2 (52)</t>
+  </si>
+  <si>
+    <t>F2 (53)</t>
+  </si>
+  <si>
+    <t>F#2 (54)</t>
+  </si>
+  <si>
+    <t>G2 (55)</t>
+  </si>
+  <si>
+    <t>G#2 (56)</t>
+  </si>
+  <si>
+    <t>A2 (57)</t>
+  </si>
+  <si>
+    <t>A#2 (58)</t>
+  </si>
+  <si>
+    <t>B2 (59)</t>
+  </si>
+  <si>
+    <t>C3 (60)</t>
+  </si>
+  <si>
+    <t>C#3 (61)</t>
+  </si>
+  <si>
+    <t>D3 (62)</t>
+  </si>
+  <si>
+    <t>D#3 (63)</t>
+  </si>
+  <si>
+    <t>E3 (64)</t>
+  </si>
+  <si>
+    <t>F3 (65)</t>
+  </si>
+  <si>
+    <t>F#3 (66)</t>
+  </si>
+  <si>
+    <t>G3 (67)</t>
+  </si>
+  <si>
+    <t>G#3 (68)</t>
+  </si>
+  <si>
+    <t>A3 (69)</t>
+  </si>
+  <si>
+    <t>A#3 (70)</t>
+  </si>
+  <si>
+    <t>B3 (71)</t>
+  </si>
+  <si>
+    <t>C4 (72)</t>
+  </si>
+  <si>
+    <t>C#4 (73)</t>
+  </si>
+  <si>
+    <t>D4 (74)</t>
+  </si>
+  <si>
+    <t>D#4 (75)</t>
+  </si>
+  <si>
+    <t>E4 (76)</t>
+  </si>
+  <si>
+    <t>F4 (77)</t>
+  </si>
+  <si>
+    <t>F#4 (78)</t>
+  </si>
+  <si>
+    <t>G4 (79)</t>
+  </si>
+  <si>
+    <t>G#4 (80)</t>
+  </si>
+  <si>
+    <t>A4 (81)</t>
+  </si>
+  <si>
+    <t>A#4 (82)</t>
+  </si>
+  <si>
+    <t>B4 (83)</t>
+  </si>
+  <si>
+    <t>C5 (84)</t>
+  </si>
+  <si>
+    <t>C#5 (85)</t>
+  </si>
+  <si>
+    <t>D5 (86)</t>
+  </si>
+  <si>
+    <t>D#5 (87)</t>
+  </si>
+  <si>
+    <t>E5 (88)</t>
+  </si>
+  <si>
+    <t>F5 (89)</t>
+  </si>
+  <si>
+    <t>F#5 (90)</t>
+  </si>
+  <si>
+    <t>G5 (91)</t>
+  </si>
+  <si>
+    <t>G#5 (92)</t>
+  </si>
+  <si>
+    <t>A5 (93)</t>
+  </si>
+  <si>
+    <t>A#5 (94)</t>
+  </si>
+  <si>
+    <t>B5 (95)</t>
+  </si>
+  <si>
+    <t>C6 (96)</t>
+  </si>
+  <si>
+    <t>C#6 (97)</t>
+  </si>
+  <si>
+    <t>D6 (98)</t>
+  </si>
+  <si>
+    <t>D#6 (99)</t>
+  </si>
+  <si>
+    <t>E6 (100)</t>
+  </si>
+  <si>
+    <t>F6 (101)</t>
+  </si>
+  <si>
+    <t>F#6 (102)</t>
+  </si>
+  <si>
+    <t>G6 (103)</t>
+  </si>
+  <si>
+    <t>G#6 (104)</t>
+  </si>
+  <si>
+    <t>A6 (105)</t>
+  </si>
+  <si>
+    <t>A#6 (106)</t>
+  </si>
+  <si>
+    <t>B6 (107)</t>
+  </si>
+  <si>
+    <t>C7 (108)</t>
+  </si>
+  <si>
+    <t>C#7 (109)</t>
+  </si>
+  <si>
+    <t>D7 (110)</t>
+  </si>
+  <si>
+    <t>D#7 (111)</t>
+  </si>
+  <si>
+    <t>E7 (112)</t>
+  </si>
+  <si>
+    <t>F7 (113)</t>
+  </si>
+  <si>
+    <t>F#7 (114)</t>
+  </si>
+  <si>
+    <t>G7 (115)</t>
+  </si>
+  <si>
+    <t>G#7 (116)</t>
+  </si>
+  <si>
+    <t>A7 (117)</t>
+  </si>
+  <si>
+    <t>A#7 (118)</t>
+  </si>
+  <si>
+    <t>B7 (119)</t>
+  </si>
+  <si>
+    <t>C8 (120)</t>
+  </si>
+  <si>
+    <t>C#8 (121)</t>
+  </si>
+  <si>
+    <t>D8 (122)</t>
+  </si>
+  <si>
+    <t>D#8 (123)</t>
+  </si>
+  <si>
+    <t>E8 (124)</t>
+  </si>
+  <si>
+    <t>F8 (125)</t>
+  </si>
+  <si>
+    <t>F#8 (126)</t>
+  </si>
+  <si>
+    <t>G8 (127)</t>
+  </si>
+  <si>
+    <t>Power Chord</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -692,29 +696,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1017,7 +999,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1036,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
@@ -1051,10 +1033,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>3</v>
@@ -1062,18 +1044,20 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" s="6">
         <v>120</v>
       </c>
@@ -1090,7 +1074,7 @@
       <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="6">
@@ -1105,7 +1089,7 @@
       <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6">
@@ -1120,7 +1104,7 @@
       <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6">
@@ -1135,7 +1119,7 @@
       <c r="B6" s="6">
         <v>0</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
@@ -1150,7 +1134,7 @@
       <c r="B7" s="6">
         <v>0</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
@@ -1165,7 +1149,7 @@
       <c r="B8" s="6">
         <v>0</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
@@ -1180,7 +1164,7 @@
       <c r="B9" s="6">
         <v>0</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
@@ -1195,7 +1179,7 @@
       <c r="B10" s="6">
         <v>0</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6">
@@ -1210,7 +1194,7 @@
       <c r="B11" s="6">
         <v>0</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6">
@@ -3046,10 +3030,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3058,773 +3042,773 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B33" s="8"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B35" s="8"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B43" s="8"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B45" s="8"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B53" s="8"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B55" s="8"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B58" s="8"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B59" s="8"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B63" s="8"/>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="10" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B64" s="8"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="10" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B65" s="8"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B66" s="8"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B67" s="8"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="10" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B68" s="8"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B69" s="8"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="10" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B70" s="8"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="10" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B71" s="8"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="10" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B72" s="8"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B73" s="8"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="10" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B74" s="8"/>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B75" s="8"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="10" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="10" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B77" s="8"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="10" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B78" s="8"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B79" s="8"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="10" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B80" s="8"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B81" s="8"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B82" s="8"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B83" s="8"/>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B84" s="8"/>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="10" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B85" s="8"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B86" s="8"/>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B87" s="8"/>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="10" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B88" s="8"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B89" s="8"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B90" s="8"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B91" s="8"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B92" s="8"/>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="10" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B93" s="8"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B94" s="8"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B95" s="8"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="10" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B96" s="8"/>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B97" s="8"/>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B98" s="8"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B99" s="8"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B100" s="8"/>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="10" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B101" s="8"/>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="10" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B102" s="8"/>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="10" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B103" s="8"/>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="10" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B104" s="8"/>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B105" s="8"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B106" s="8"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B107" s="8"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="10" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B108" s="8"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="10" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B109" s="8"/>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="10" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B110" s="8"/>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="10" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B111" s="8"/>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="10" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B112" s="8"/>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B113" s="8"/>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="10" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B114" s="8"/>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="10" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B115" s="8"/>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="10" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B116" s="8"/>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B117" s="8"/>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="10" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B118" s="8"/>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="10" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B119" s="8"/>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="10" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B120" s="8"/>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B121" s="8"/>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B122" s="8"/>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="10" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B123" s="8"/>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B124" s="8"/>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="10" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B125" s="8"/>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="10" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B126" s="8"/>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="10" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B127" s="8"/>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="10" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B128" s="8"/>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="10" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B129" s="8"/>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="10" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/Develop/Projects/OSS/XLS2ExpressionMap/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21555" windowHeight="10530"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="21560" windowHeight="10540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
     <sheet name="DO NOT MODIFY!" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,20 +53,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDI Note</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Velocity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Memo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -81,14 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CC No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CC Value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
@@ -501,6 +498,26 @@
   </si>
   <si>
     <t>MIDI Note Off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Articulation Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIDI Note1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Velocity1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CC No1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CC Value1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -508,18 +525,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -527,14 +544,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -550,7 +567,7 @@
     <font>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -616,29 +633,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +663,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +743,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -741,7 +761,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -783,12 +803,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -818,12 +838,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1029,100 +1049,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" style="19" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="4" customWidth="1"/>
     <col min="7" max="9" width="9.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="50.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="6">
         <v>120</v>
       </c>
@@ -1134,7 +1152,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="6">
         <v>0</v>
@@ -1142,7 +1160,7 @@
       <c r="C4" s="17"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="6">
         <v>120</v>
       </c>
@@ -1150,7 +1168,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="6">
         <v>0</v>
@@ -1158,7 +1176,7 @@
       <c r="C5" s="17"/>
       <c r="D5" s="2"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="6">
         <v>120</v>
       </c>
@@ -1166,7 +1184,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="6">
         <v>0</v>
@@ -1174,7 +1192,7 @@
       <c r="C6" s="17"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6">
         <v>120</v>
       </c>
@@ -1182,7 +1200,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="6">
         <v>0</v>
@@ -1190,7 +1208,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="2"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="6">
         <v>120</v>
       </c>
@@ -1198,7 +1216,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="6">
         <v>0</v>
@@ -1206,7 +1224,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="2"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="6">
         <v>120</v>
       </c>
@@ -1214,7 +1232,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="6">
         <v>0</v>
@@ -1222,7 +1240,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="6">
         <v>120</v>
       </c>
@@ -1230,7 +1248,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>0</v>
@@ -1238,7 +1256,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="6">
         <v>120</v>
       </c>
@@ -1246,7 +1264,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="6">
         <v>0</v>
@@ -1254,7 +1272,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="2"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6">
         <v>120</v>
       </c>
@@ -1262,7 +1280,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
         <v>0</v>
@@ -1270,7 +1288,7 @@
       <c r="C12" s="18"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="6">
         <v>120</v>
       </c>
@@ -1278,7 +1296,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="6">
         <v>0</v>
@@ -1286,7 +1304,7 @@
       <c r="C13" s="18"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="6">
         <v>120</v>
       </c>
@@ -1294,7 +1312,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="6">
         <v>0</v>
@@ -1302,7 +1320,7 @@
       <c r="C14" s="18"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6">
         <v>120</v>
       </c>
@@ -1310,7 +1328,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="6">
         <v>0</v>
@@ -1318,7 +1336,7 @@
       <c r="C15" s="18"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6">
         <v>120</v>
       </c>
@@ -1326,7 +1344,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="6">
         <v>0</v>
@@ -1334,7 +1352,7 @@
       <c r="C16" s="18"/>
       <c r="D16" s="2"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="6">
         <v>120</v>
       </c>
@@ -1342,7 +1360,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="6">
         <v>0</v>
@@ -1350,7 +1368,7 @@
       <c r="C17" s="18"/>
       <c r="D17" s="2"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="6">
         <v>120</v>
       </c>
@@ -1358,7 +1376,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="6">
         <v>0</v>
@@ -1366,7 +1384,7 @@
       <c r="C18" s="18"/>
       <c r="D18" s="2"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="6">
         <v>120</v>
       </c>
@@ -1374,7 +1392,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="6">
         <v>0</v>
@@ -1382,7 +1400,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="2"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6">
         <v>120</v>
       </c>
@@ -1390,7 +1408,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="6">
         <v>0</v>
@@ -1398,7 +1416,7 @@
       <c r="C20" s="18"/>
       <c r="D20" s="2"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="6">
         <v>120</v>
       </c>
@@ -1406,7 +1424,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="6">
         <v>0</v>
@@ -1414,7 +1432,7 @@
       <c r="C21" s="18"/>
       <c r="D21" s="2"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="6">
         <v>120</v>
       </c>
@@ -1422,7 +1440,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="6">
         <v>0</v>
@@ -1430,7 +1448,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="2"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="6">
         <v>120</v>
       </c>
@@ -1438,7 +1456,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="6">
         <v>0</v>
@@ -1446,7 +1464,7 @@
       <c r="C23" s="18"/>
       <c r="D23" s="2"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="6">
         <v>120</v>
       </c>
@@ -1454,7 +1472,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="6">
         <v>0</v>
@@ -1462,7 +1480,7 @@
       <c r="C24" s="18"/>
       <c r="D24" s="2"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="6">
         <v>120</v>
       </c>
@@ -1470,7 +1488,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="6">
         <v>0</v>
@@ -1478,7 +1496,7 @@
       <c r="C25" s="18"/>
       <c r="D25" s="2"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="6">
         <v>120</v>
       </c>
@@ -1486,7 +1504,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="6">
         <v>0</v>
@@ -1494,7 +1512,7 @@
       <c r="C26" s="18"/>
       <c r="D26" s="2"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="6">
         <v>120</v>
       </c>
@@ -1502,7 +1520,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="6">
         <v>0</v>
@@ -1510,7 +1528,7 @@
       <c r="C27" s="18"/>
       <c r="D27" s="2"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="6">
         <v>120</v>
       </c>
@@ -1518,7 +1536,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="6">
         <v>0</v>
@@ -1526,7 +1544,7 @@
       <c r="C28" s="18"/>
       <c r="D28" s="2"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="6">
         <v>120</v>
       </c>
@@ -1534,7 +1552,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="6">
         <v>0</v>
@@ -1542,7 +1560,7 @@
       <c r="C29" s="18"/>
       <c r="D29" s="2"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="6">
         <v>120</v>
       </c>
@@ -1550,7 +1568,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="6">
         <v>0</v>
@@ -1558,7 +1576,7 @@
       <c r="C30" s="18"/>
       <c r="D30" s="2"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="6">
         <v>120</v>
       </c>
@@ -1566,7 +1584,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="6">
         <v>0</v>
@@ -1574,7 +1592,7 @@
       <c r="C31" s="18"/>
       <c r="D31" s="2"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="6">
         <v>120</v>
       </c>
@@ -1582,7 +1600,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="6">
         <v>0</v>
@@ -1590,7 +1608,7 @@
       <c r="C32" s="18"/>
       <c r="D32" s="2"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="6">
         <v>120</v>
       </c>
@@ -1598,7 +1616,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="6">
         <v>0</v>
@@ -1606,7 +1624,7 @@
       <c r="C33" s="18"/>
       <c r="D33" s="2"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="6">
         <v>120</v>
       </c>
@@ -1614,7 +1632,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="6">
         <v>0</v>
@@ -1622,7 +1640,7 @@
       <c r="C34" s="18"/>
       <c r="D34" s="2"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="6">
         <v>120</v>
       </c>
@@ -1630,7 +1648,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="6">
         <v>0</v>
@@ -1638,7 +1656,7 @@
       <c r="C35" s="18"/>
       <c r="D35" s="2"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="6">
         <v>120</v>
       </c>
@@ -1646,7 +1664,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="6">
         <v>0</v>
@@ -1654,7 +1672,7 @@
       <c r="C36" s="18"/>
       <c r="D36" s="2"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="6">
         <v>120</v>
       </c>
@@ -1662,7 +1680,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="6">
         <v>0</v>
@@ -1670,7 +1688,7 @@
       <c r="C37" s="18"/>
       <c r="D37" s="2"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="6">
         <v>120</v>
       </c>
@@ -1678,7 +1696,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="6">
         <v>0</v>
@@ -1686,7 +1704,7 @@
       <c r="C38" s="18"/>
       <c r="D38" s="2"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="6">
         <v>120</v>
       </c>
@@ -1694,7 +1712,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="6">
         <v>0</v>
@@ -1702,7 +1720,7 @@
       <c r="C39" s="18"/>
       <c r="D39" s="2"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="6"/>
       <c r="G39" s="6">
         <v>120</v>
       </c>
@@ -1710,7 +1728,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="6">
         <v>0</v>
@@ -1718,7 +1736,7 @@
       <c r="C40" s="18"/>
       <c r="D40" s="2"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="6"/>
       <c r="G40" s="6">
         <v>120</v>
       </c>
@@ -1726,7 +1744,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="6">
         <v>0</v>
@@ -1734,7 +1752,7 @@
       <c r="C41" s="18"/>
       <c r="D41" s="2"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="6"/>
       <c r="G41" s="6">
         <v>120</v>
       </c>
@@ -1742,7 +1760,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="6">
         <v>0</v>
@@ -1750,7 +1768,7 @@
       <c r="C42" s="18"/>
       <c r="D42" s="2"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="6">
         <v>120</v>
       </c>
@@ -1758,7 +1776,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="6">
         <v>0</v>
@@ -1766,7 +1784,7 @@
       <c r="C43" s="18"/>
       <c r="D43" s="2"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="6"/>
       <c r="G43" s="6">
         <v>120</v>
       </c>
@@ -1774,7 +1792,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="6">
         <v>0</v>
@@ -1782,7 +1800,7 @@
       <c r="C44" s="18"/>
       <c r="D44" s="2"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="6">
         <v>120</v>
       </c>
@@ -1790,7 +1808,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="6">
         <v>0</v>
@@ -1798,7 +1816,7 @@
       <c r="C45" s="18"/>
       <c r="D45" s="2"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="6">
         <v>120</v>
       </c>
@@ -1806,7 +1824,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="6">
         <v>0</v>
@@ -1814,7 +1832,7 @@
       <c r="C46" s="18"/>
       <c r="D46" s="2"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="6"/>
       <c r="G46" s="6">
         <v>120</v>
       </c>
@@ -1822,7 +1840,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="6">
         <v>0</v>
@@ -1830,7 +1848,7 @@
       <c r="C47" s="18"/>
       <c r="D47" s="2"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="6">
         <v>120</v>
       </c>
@@ -1838,7 +1856,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="6">
         <v>0</v>
@@ -1846,7 +1864,7 @@
       <c r="C48" s="18"/>
       <c r="D48" s="2"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="6">
         <v>120</v>
       </c>
@@ -1854,7 +1872,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="6">
         <v>0</v>
@@ -1862,7 +1880,7 @@
       <c r="C49" s="18"/>
       <c r="D49" s="2"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="6">
         <v>120</v>
       </c>
@@ -1870,7 +1888,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="6">
         <v>0</v>
@@ -1878,7 +1896,7 @@
       <c r="C50" s="18"/>
       <c r="D50" s="2"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="6">
         <v>120</v>
       </c>
@@ -1886,7 +1904,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="6">
         <v>0</v>
@@ -1894,7 +1912,7 @@
       <c r="C51" s="18"/>
       <c r="D51" s="2"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="6">
         <v>120</v>
       </c>
@@ -1902,7 +1920,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="6">
         <v>0</v>
@@ -1910,7 +1928,7 @@
       <c r="C52" s="18"/>
       <c r="D52" s="2"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="6">
         <v>120</v>
       </c>
@@ -1918,7 +1936,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="6">
         <v>0</v>
@@ -1926,7 +1944,7 @@
       <c r="C53" s="18"/>
       <c r="D53" s="2"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="6">
         <v>120</v>
       </c>
@@ -1934,7 +1952,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="6">
         <v>0</v>
@@ -1942,7 +1960,7 @@
       <c r="C54" s="18"/>
       <c r="D54" s="2"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="2"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="6">
         <v>120</v>
       </c>
@@ -1950,7 +1968,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="6">
         <v>0</v>
@@ -1958,7 +1976,7 @@
       <c r="C55" s="18"/>
       <c r="D55" s="2"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="6">
         <v>120</v>
       </c>
@@ -1966,7 +1984,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="6">
         <v>0</v>
@@ -1974,7 +1992,7 @@
       <c r="C56" s="18"/>
       <c r="D56" s="2"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="6">
         <v>120</v>
       </c>
@@ -1982,7 +2000,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="6">
         <v>0</v>
@@ -1990,7 +2008,7 @@
       <c r="C57" s="18"/>
       <c r="D57" s="2"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="6">
         <v>120</v>
       </c>
@@ -1998,7 +2016,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="6">
         <v>0</v>
@@ -2006,7 +2024,7 @@
       <c r="C58" s="18"/>
       <c r="D58" s="2"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="2"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="6">
         <v>120</v>
       </c>
@@ -2014,7 +2032,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="6">
         <v>0</v>
@@ -2022,7 +2040,7 @@
       <c r="C59" s="18"/>
       <c r="D59" s="2"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="6">
         <v>120</v>
       </c>
@@ -2030,7 +2048,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="6">
         <v>0</v>
@@ -2038,7 +2056,7 @@
       <c r="C60" s="18"/>
       <c r="D60" s="2"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="6"/>
       <c r="G60" s="6">
         <v>120</v>
       </c>
@@ -2046,7 +2064,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="6">
         <v>0</v>
@@ -2054,7 +2072,7 @@
       <c r="C61" s="18"/>
       <c r="D61" s="2"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="6">
         <v>120</v>
       </c>
@@ -2062,7 +2080,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="6">
         <v>0</v>
@@ -2070,7 +2088,7 @@
       <c r="C62" s="18"/>
       <c r="D62" s="2"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="6">
         <v>120</v>
       </c>
@@ -2078,7 +2096,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="6">
         <v>0</v>
@@ -2086,7 +2104,7 @@
       <c r="C63" s="18"/>
       <c r="D63" s="2"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="2"/>
+      <c r="F63" s="6"/>
       <c r="G63" s="6">
         <v>120</v>
       </c>
@@ -2094,7 +2112,7 @@
       <c r="I63" s="6"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="6">
         <v>0</v>
@@ -2102,7 +2120,7 @@
       <c r="C64" s="18"/>
       <c r="D64" s="2"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="2"/>
+      <c r="F64" s="6"/>
       <c r="G64" s="6">
         <v>120</v>
       </c>
@@ -2110,7 +2128,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="6">
         <v>0</v>
@@ -2118,7 +2136,7 @@
       <c r="C65" s="18"/>
       <c r="D65" s="2"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="2"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="6">
         <v>120</v>
       </c>
@@ -2126,7 +2144,7 @@
       <c r="I65" s="6"/>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="6">
         <v>0</v>
@@ -2134,7 +2152,7 @@
       <c r="C66" s="18"/>
       <c r="D66" s="2"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="6"/>
       <c r="G66" s="6">
         <v>120</v>
       </c>
@@ -2142,7 +2160,7 @@
       <c r="I66" s="6"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="6">
         <v>0</v>
@@ -2150,7 +2168,7 @@
       <c r="C67" s="18"/>
       <c r="D67" s="2"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="6"/>
       <c r="G67" s="6">
         <v>120</v>
       </c>
@@ -2158,7 +2176,7 @@
       <c r="I67" s="6"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="6">
         <v>0</v>
@@ -2166,7 +2184,7 @@
       <c r="C68" s="18"/>
       <c r="D68" s="2"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="2"/>
+      <c r="F68" s="6"/>
       <c r="G68" s="6">
         <v>120</v>
       </c>
@@ -2174,7 +2192,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="6">
         <v>0</v>
@@ -2182,7 +2200,7 @@
       <c r="C69" s="18"/>
       <c r="D69" s="2"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="2"/>
+      <c r="F69" s="6"/>
       <c r="G69" s="6">
         <v>120</v>
       </c>
@@ -2190,7 +2208,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="6">
         <v>0</v>
@@ -2198,7 +2216,7 @@
       <c r="C70" s="18"/>
       <c r="D70" s="2"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="2"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="6">
         <v>120</v>
       </c>
@@ -2206,7 +2224,7 @@
       <c r="I70" s="6"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="6">
         <v>0</v>
@@ -2214,7 +2232,7 @@
       <c r="C71" s="18"/>
       <c r="D71" s="2"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="2"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="6">
         <v>120</v>
       </c>
@@ -2222,7 +2240,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="6">
         <v>0</v>
@@ -2230,7 +2248,7 @@
       <c r="C72" s="18"/>
       <c r="D72" s="2"/>
       <c r="E72" s="6"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="6"/>
       <c r="G72" s="6">
         <v>120</v>
       </c>
@@ -2238,7 +2256,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="6">
         <v>0</v>
@@ -2246,7 +2264,7 @@
       <c r="C73" s="18"/>
       <c r="D73" s="2"/>
       <c r="E73" s="6"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="6"/>
       <c r="G73" s="6">
         <v>120</v>
       </c>
@@ -2254,7 +2272,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="6">
         <v>0</v>
@@ -2262,7 +2280,7 @@
       <c r="C74" s="18"/>
       <c r="D74" s="2"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="2"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="6">
         <v>120</v>
       </c>
@@ -2270,7 +2288,7 @@
       <c r="I74" s="6"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="6">
         <v>0</v>
@@ -2278,7 +2296,7 @@
       <c r="C75" s="18"/>
       <c r="D75" s="2"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="2"/>
+      <c r="F75" s="6"/>
       <c r="G75" s="6">
         <v>120</v>
       </c>
@@ -2286,7 +2304,7 @@
       <c r="I75" s="6"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="6">
         <v>0</v>
@@ -2294,7 +2312,7 @@
       <c r="C76" s="18"/>
       <c r="D76" s="2"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="2"/>
+      <c r="F76" s="6"/>
       <c r="G76" s="6">
         <v>120</v>
       </c>
@@ -2302,7 +2320,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="6">
         <v>0</v>
@@ -2310,7 +2328,7 @@
       <c r="C77" s="18"/>
       <c r="D77" s="2"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="6"/>
       <c r="G77" s="6">
         <v>120</v>
       </c>
@@ -2318,7 +2336,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="6">
         <v>0</v>
@@ -2326,7 +2344,7 @@
       <c r="C78" s="18"/>
       <c r="D78" s="2"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="6"/>
       <c r="G78" s="6">
         <v>120</v>
       </c>
@@ -2334,7 +2352,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="6">
         <v>0</v>
@@ -2342,7 +2360,7 @@
       <c r="C79" s="18"/>
       <c r="D79" s="2"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="2"/>
+      <c r="F79" s="6"/>
       <c r="G79" s="6">
         <v>120</v>
       </c>
@@ -2350,7 +2368,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="6">
         <v>0</v>
@@ -2358,7 +2376,7 @@
       <c r="C80" s="18"/>
       <c r="D80" s="2"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="2"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="6">
         <v>120</v>
       </c>
@@ -2366,7 +2384,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="6">
         <v>0</v>
@@ -2374,7 +2392,7 @@
       <c r="C81" s="18"/>
       <c r="D81" s="2"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="2"/>
+      <c r="F81" s="6"/>
       <c r="G81" s="6">
         <v>120</v>
       </c>
@@ -2382,7 +2400,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="6">
         <v>0</v>
@@ -2390,7 +2408,7 @@
       <c r="C82" s="18"/>
       <c r="D82" s="2"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="6"/>
       <c r="G82" s="6">
         <v>120</v>
       </c>
@@ -2398,7 +2416,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="6">
         <v>0</v>
@@ -2406,7 +2424,7 @@
       <c r="C83" s="18"/>
       <c r="D83" s="2"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="2"/>
+      <c r="F83" s="6"/>
       <c r="G83" s="6">
         <v>120</v>
       </c>
@@ -2414,7 +2432,7 @@
       <c r="I83" s="6"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="6">
         <v>0</v>
@@ -2422,7 +2440,7 @@
       <c r="C84" s="18"/>
       <c r="D84" s="2"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="2"/>
+      <c r="F84" s="6"/>
       <c r="G84" s="6">
         <v>120</v>
       </c>
@@ -2430,7 +2448,7 @@
       <c r="I84" s="6"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="6">
         <v>0</v>
@@ -2438,7 +2456,7 @@
       <c r="C85" s="18"/>
       <c r="D85" s="2"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="2"/>
+      <c r="F85" s="6"/>
       <c r="G85" s="6">
         <v>120</v>
       </c>
@@ -2446,7 +2464,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="6">
         <v>0</v>
@@ -2454,7 +2472,7 @@
       <c r="C86" s="18"/>
       <c r="D86" s="2"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="2"/>
+      <c r="F86" s="6"/>
       <c r="G86" s="6">
         <v>120</v>
       </c>
@@ -2462,7 +2480,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="6">
         <v>0</v>
@@ -2470,7 +2488,7 @@
       <c r="C87" s="18"/>
       <c r="D87" s="2"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="2"/>
+      <c r="F87" s="6"/>
       <c r="G87" s="6">
         <v>120</v>
       </c>
@@ -2478,7 +2496,7 @@
       <c r="I87" s="6"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="6">
         <v>0</v>
@@ -2486,7 +2504,7 @@
       <c r="C88" s="18"/>
       <c r="D88" s="2"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="2"/>
+      <c r="F88" s="6"/>
       <c r="G88" s="6">
         <v>120</v>
       </c>
@@ -2494,7 +2512,7 @@
       <c r="I88" s="6"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="6">
         <v>0</v>
@@ -2502,7 +2520,7 @@
       <c r="C89" s="18"/>
       <c r="D89" s="2"/>
       <c r="E89" s="6"/>
-      <c r="F89" s="2"/>
+      <c r="F89" s="6"/>
       <c r="G89" s="6">
         <v>120</v>
       </c>
@@ -2510,7 +2528,7 @@
       <c r="I89" s="6"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="6">
         <v>0</v>
@@ -2518,7 +2536,7 @@
       <c r="C90" s="18"/>
       <c r="D90" s="2"/>
       <c r="E90" s="6"/>
-      <c r="F90" s="2"/>
+      <c r="F90" s="6"/>
       <c r="G90" s="6">
         <v>120</v>
       </c>
@@ -2526,7 +2544,7 @@
       <c r="I90" s="6"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="6">
         <v>0</v>
@@ -2534,7 +2552,7 @@
       <c r="C91" s="18"/>
       <c r="D91" s="2"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="2"/>
+      <c r="F91" s="6"/>
       <c r="G91" s="6">
         <v>120</v>
       </c>
@@ -2542,7 +2560,7 @@
       <c r="I91" s="6"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="6">
         <v>0</v>
@@ -2550,7 +2568,7 @@
       <c r="C92" s="18"/>
       <c r="D92" s="2"/>
       <c r="E92" s="6"/>
-      <c r="F92" s="2"/>
+      <c r="F92" s="6"/>
       <c r="G92" s="6">
         <v>120</v>
       </c>
@@ -2558,7 +2576,7 @@
       <c r="I92" s="6"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="6">
         <v>0</v>
@@ -2566,7 +2584,7 @@
       <c r="C93" s="18"/>
       <c r="D93" s="2"/>
       <c r="E93" s="6"/>
-      <c r="F93" s="2"/>
+      <c r="F93" s="6"/>
       <c r="G93" s="6">
         <v>120</v>
       </c>
@@ -2574,7 +2592,7 @@
       <c r="I93" s="6"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="6">
         <v>0</v>
@@ -2582,7 +2600,7 @@
       <c r="C94" s="18"/>
       <c r="D94" s="2"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="2"/>
+      <c r="F94" s="6"/>
       <c r="G94" s="6">
         <v>120</v>
       </c>
@@ -2590,7 +2608,7 @@
       <c r="I94" s="6"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="6">
         <v>0</v>
@@ -2598,7 +2616,7 @@
       <c r="C95" s="18"/>
       <c r="D95" s="2"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="2"/>
+      <c r="F95" s="6"/>
       <c r="G95" s="6">
         <v>120</v>
       </c>
@@ -2606,7 +2624,7 @@
       <c r="I95" s="6"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="6">
         <v>0</v>
@@ -2614,7 +2632,7 @@
       <c r="C96" s="18"/>
       <c r="D96" s="2"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="2"/>
+      <c r="F96" s="6"/>
       <c r="G96" s="6">
         <v>120</v>
       </c>
@@ -2622,7 +2640,7 @@
       <c r="I96" s="6"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="6">
         <v>0</v>
@@ -2630,7 +2648,7 @@
       <c r="C97" s="18"/>
       <c r="D97" s="2"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="2"/>
+      <c r="F97" s="6"/>
       <c r="G97" s="6">
         <v>120</v>
       </c>
@@ -2638,7 +2656,7 @@
       <c r="I97" s="6"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="6">
         <v>0</v>
@@ -2646,7 +2664,7 @@
       <c r="C98" s="18"/>
       <c r="D98" s="2"/>
       <c r="E98" s="6"/>
-      <c r="F98" s="2"/>
+      <c r="F98" s="6"/>
       <c r="G98" s="6">
         <v>120</v>
       </c>
@@ -2654,7 +2672,7 @@
       <c r="I98" s="6"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="6">
         <v>0</v>
@@ -2662,7 +2680,7 @@
       <c r="C99" s="18"/>
       <c r="D99" s="2"/>
       <c r="E99" s="6"/>
-      <c r="F99" s="2"/>
+      <c r="F99" s="6"/>
       <c r="G99" s="6">
         <v>120</v>
       </c>
@@ -2670,7 +2688,7 @@
       <c r="I99" s="6"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="6">
         <v>0</v>
@@ -2678,7 +2696,7 @@
       <c r="C100" s="18"/>
       <c r="D100" s="2"/>
       <c r="E100" s="6"/>
-      <c r="F100" s="2"/>
+      <c r="F100" s="6"/>
       <c r="G100" s="6">
         <v>120</v>
       </c>
@@ -2686,7 +2704,7 @@
       <c r="I100" s="6"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="6">
         <v>0</v>
@@ -2694,7 +2712,7 @@
       <c r="C101" s="18"/>
       <c r="D101" s="2"/>
       <c r="E101" s="6"/>
-      <c r="F101" s="2"/>
+      <c r="F101" s="6"/>
       <c r="G101" s="6">
         <v>120</v>
       </c>
@@ -2702,7 +2720,7 @@
       <c r="I101" s="6"/>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="6">
         <v>0</v>
@@ -2710,7 +2728,7 @@
       <c r="C102" s="18"/>
       <c r="D102" s="2"/>
       <c r="E102" s="6"/>
-      <c r="F102" s="2"/>
+      <c r="F102" s="6"/>
       <c r="G102" s="6">
         <v>120</v>
       </c>
@@ -2718,7 +2736,7 @@
       <c r="I102" s="6"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="6">
         <v>0</v>
@@ -2726,7 +2744,7 @@
       <c r="C103" s="18"/>
       <c r="D103" s="2"/>
       <c r="E103" s="6"/>
-      <c r="F103" s="2"/>
+      <c r="F103" s="6"/>
       <c r="G103" s="6">
         <v>120</v>
       </c>
@@ -2734,7 +2752,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="6">
         <v>0</v>
@@ -2742,7 +2760,7 @@
       <c r="C104" s="18"/>
       <c r="D104" s="2"/>
       <c r="E104" s="6"/>
-      <c r="F104" s="2"/>
+      <c r="F104" s="6"/>
       <c r="G104" s="6">
         <v>120</v>
       </c>
@@ -2750,7 +2768,7 @@
       <c r="I104" s="6"/>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="6">
         <v>0</v>
@@ -2758,7 +2776,7 @@
       <c r="C105" s="18"/>
       <c r="D105" s="2"/>
       <c r="E105" s="6"/>
-      <c r="F105" s="2"/>
+      <c r="F105" s="6"/>
       <c r="G105" s="6">
         <v>120</v>
       </c>
@@ -2766,7 +2784,7 @@
       <c r="I105" s="6"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="6">
         <v>0</v>
@@ -2774,7 +2792,7 @@
       <c r="C106" s="18"/>
       <c r="D106" s="2"/>
       <c r="E106" s="6"/>
-      <c r="F106" s="2"/>
+      <c r="F106" s="6"/>
       <c r="G106" s="6">
         <v>120</v>
       </c>
@@ -2782,7 +2800,7 @@
       <c r="I106" s="6"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="6">
         <v>0</v>
@@ -2790,7 +2808,7 @@
       <c r="C107" s="18"/>
       <c r="D107" s="2"/>
       <c r="E107" s="6"/>
-      <c r="F107" s="2"/>
+      <c r="F107" s="6"/>
       <c r="G107" s="6">
         <v>120</v>
       </c>
@@ -2798,7 +2816,7 @@
       <c r="I107" s="6"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="6">
         <v>0</v>
@@ -2806,7 +2824,7 @@
       <c r="C108" s="18"/>
       <c r="D108" s="2"/>
       <c r="E108" s="6"/>
-      <c r="F108" s="2"/>
+      <c r="F108" s="6"/>
       <c r="G108" s="6">
         <v>120</v>
       </c>
@@ -2814,7 +2832,7 @@
       <c r="I108" s="6"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="6">
         <v>0</v>
@@ -2822,7 +2840,7 @@
       <c r="C109" s="18"/>
       <c r="D109" s="2"/>
       <c r="E109" s="6"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="6"/>
       <c r="G109" s="6">
         <v>120</v>
       </c>
@@ -2830,7 +2848,7 @@
       <c r="I109" s="6"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="6">
         <v>0</v>
@@ -2838,7 +2856,7 @@
       <c r="C110" s="18"/>
       <c r="D110" s="2"/>
       <c r="E110" s="6"/>
-      <c r="F110" s="2"/>
+      <c r="F110" s="6"/>
       <c r="G110" s="6">
         <v>120</v>
       </c>
@@ -2846,7 +2864,7 @@
       <c r="I110" s="6"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="6">
         <v>0</v>
@@ -2854,7 +2872,7 @@
       <c r="C111" s="18"/>
       <c r="D111" s="2"/>
       <c r="E111" s="6"/>
-      <c r="F111" s="2"/>
+      <c r="F111" s="6"/>
       <c r="G111" s="6">
         <v>120</v>
       </c>
@@ -2862,7 +2880,7 @@
       <c r="I111" s="6"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="6">
         <v>0</v>
@@ -2870,7 +2888,7 @@
       <c r="C112" s="18"/>
       <c r="D112" s="2"/>
       <c r="E112" s="6"/>
-      <c r="F112" s="2"/>
+      <c r="F112" s="6"/>
       <c r="G112" s="6">
         <v>120</v>
       </c>
@@ -2878,7 +2896,7 @@
       <c r="I112" s="6"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="6">
         <v>0</v>
@@ -2886,7 +2904,7 @@
       <c r="C113" s="18"/>
       <c r="D113" s="2"/>
       <c r="E113" s="6"/>
-      <c r="F113" s="2"/>
+      <c r="F113" s="6"/>
       <c r="G113" s="6">
         <v>120</v>
       </c>
@@ -2894,7 +2912,7 @@
       <c r="I113" s="6"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="6">
         <v>0</v>
@@ -2902,7 +2920,7 @@
       <c r="C114" s="18"/>
       <c r="D114" s="2"/>
       <c r="E114" s="6"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="6"/>
       <c r="G114" s="6">
         <v>120</v>
       </c>
@@ -2910,7 +2928,7 @@
       <c r="I114" s="6"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="6">
         <v>0</v>
@@ -2918,7 +2936,7 @@
       <c r="C115" s="18"/>
       <c r="D115" s="2"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="2"/>
+      <c r="F115" s="6"/>
       <c r="G115" s="6">
         <v>120</v>
       </c>
@@ -2926,7 +2944,7 @@
       <c r="I115" s="6"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="6">
         <v>0</v>
@@ -2934,7 +2952,7 @@
       <c r="C116" s="18"/>
       <c r="D116" s="2"/>
       <c r="E116" s="6"/>
-      <c r="F116" s="2"/>
+      <c r="F116" s="6"/>
       <c r="G116" s="6">
         <v>120</v>
       </c>
@@ -2942,7 +2960,7 @@
       <c r="I116" s="6"/>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="6">
         <v>0</v>
@@ -2950,7 +2968,7 @@
       <c r="C117" s="18"/>
       <c r="D117" s="2"/>
       <c r="E117" s="6"/>
-      <c r="F117" s="2"/>
+      <c r="F117" s="6"/>
       <c r="G117" s="6">
         <v>120</v>
       </c>
@@ -2958,7 +2976,7 @@
       <c r="I117" s="6"/>
       <c r="J117" s="3"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="6">
         <v>0</v>
@@ -2966,7 +2984,7 @@
       <c r="C118" s="18"/>
       <c r="D118" s="2"/>
       <c r="E118" s="6"/>
-      <c r="F118" s="2"/>
+      <c r="F118" s="6"/>
       <c r="G118" s="6">
         <v>120</v>
       </c>
@@ -2974,7 +2992,7 @@
       <c r="I118" s="6"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="6">
         <v>0</v>
@@ -2982,7 +3000,7 @@
       <c r="C119" s="18"/>
       <c r="D119" s="2"/>
       <c r="E119" s="6"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="6"/>
       <c r="G119" s="6">
         <v>120</v>
       </c>
@@ -2990,7 +3008,7 @@
       <c r="I119" s="6"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="6">
         <v>0</v>
@@ -2998,7 +3016,7 @@
       <c r="C120" s="18"/>
       <c r="D120" s="2"/>
       <c r="E120" s="6"/>
-      <c r="F120" s="2"/>
+      <c r="F120" s="6"/>
       <c r="G120" s="6">
         <v>120</v>
       </c>
@@ -3006,7 +3024,7 @@
       <c r="I120" s="6"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="6">
         <v>0</v>
@@ -3014,7 +3032,7 @@
       <c r="C121" s="18"/>
       <c r="D121" s="2"/>
       <c r="E121" s="6"/>
-      <c r="F121" s="2"/>
+      <c r="F121" s="6"/>
       <c r="G121" s="6">
         <v>120</v>
       </c>
@@ -3022,7 +3040,7 @@
       <c r="I121" s="6"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="6">
         <v>0</v>
@@ -3030,7 +3048,7 @@
       <c r="C122" s="18"/>
       <c r="D122" s="2"/>
       <c r="E122" s="6"/>
-      <c r="F122" s="2"/>
+      <c r="F122" s="6"/>
       <c r="G122" s="6">
         <v>120</v>
       </c>
@@ -3038,7 +3056,7 @@
       <c r="I122" s="6"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="6">
         <v>0</v>
@@ -3046,7 +3064,7 @@
       <c r="C123" s="18"/>
       <c r="D123" s="2"/>
       <c r="E123" s="6"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="6"/>
       <c r="G123" s="6">
         <v>120</v>
       </c>
@@ -3054,7 +3072,7 @@
       <c r="I123" s="6"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="6">
         <v>0</v>
@@ -3062,7 +3080,7 @@
       <c r="C124" s="18"/>
       <c r="D124" s="2"/>
       <c r="E124" s="6"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="6"/>
       <c r="G124" s="6">
         <v>120</v>
       </c>
@@ -3070,7 +3088,7 @@
       <c r="I124" s="6"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="6">
         <v>0</v>
@@ -3078,7 +3096,7 @@
       <c r="C125" s="18"/>
       <c r="D125" s="2"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="2"/>
+      <c r="F125" s="6"/>
       <c r="G125" s="6">
         <v>120</v>
       </c>
@@ -3086,7 +3104,7 @@
       <c r="I125" s="6"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="6">
         <v>0</v>
@@ -3094,7 +3112,7 @@
       <c r="C126" s="18"/>
       <c r="D126" s="2"/>
       <c r="E126" s="6"/>
-      <c r="F126" s="2"/>
+      <c r="F126" s="6"/>
       <c r="G126" s="6">
         <v>120</v>
       </c>
@@ -3102,7 +3120,7 @@
       <c r="I126" s="6"/>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="6">
         <v>0</v>
@@ -3110,7 +3128,7 @@
       <c r="C127" s="18"/>
       <c r="D127" s="2"/>
       <c r="E127" s="6"/>
-      <c r="F127" s="2"/>
+      <c r="F127" s="6"/>
       <c r="G127" s="6">
         <v>120</v>
       </c>
@@ -3118,7 +3136,7 @@
       <c r="I127" s="6"/>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="6">
         <v>0</v>
@@ -3126,7 +3144,7 @@
       <c r="C128" s="18"/>
       <c r="D128" s="2"/>
       <c r="E128" s="6"/>
-      <c r="F128" s="2"/>
+      <c r="F128" s="6"/>
       <c r="G128" s="6">
         <v>120</v>
       </c>
@@ -3134,7 +3152,7 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="6">
         <v>0</v>
@@ -3142,7 +3160,7 @@
       <c r="C129" s="18"/>
       <c r="D129" s="2"/>
       <c r="E129" s="6"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="6"/>
       <c r="G129" s="6">
         <v>120</v>
       </c>
@@ -3171,12 +3189,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
-          <x14:formula1>
-            <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F129</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
@@ -3189,6 +3201,12 @@
           </x14:formula1>
           <xm:sqref>E2:E129</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F129</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -3197,817 +3215,1457 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" customHeight="1">
+    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>14</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
-        <v>16</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10" t="s">
-        <v>17</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="10" t="s">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="10" t="s">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="10" t="s">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="10" t="s">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="10" t="s">
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="10" t="s">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="8"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="10" t="s">
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="8"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="10" t="s">
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="8"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="10" t="s">
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="10" t="s">
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="8"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="10" t="s">
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="10" t="s">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="10" t="s">
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="10" t="s">
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="10" t="s">
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="10" t="s">
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="10" t="s">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="10" t="s">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="10" t="s">
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="10" t="s">
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="10" t="s">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="10" t="s">
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="10" t="s">
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="10" t="s">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="8"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="10" t="s">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="8"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="10" t="s">
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="8"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="10" t="s">
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="8"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="10" t="s">
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="8"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="10" t="s">
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="8"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="10" t="s">
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="8"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="10" t="s">
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="10" t="s">
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="8"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="10" t="s">
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="8"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="10" t="s">
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="10" t="s">
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="8"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="10" t="s">
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="8"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="10" t="s">
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="10" t="s">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="8"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="10" t="s">
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="8"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="10" t="s">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B78" s="8"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="10" t="s">
+      <c r="B82" s="8"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="8"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="10" t="s">
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="8"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="10" t="s">
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="10" t="s">
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="8"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="10" t="s">
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="10" t="s">
+      <c r="B87" s="8"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="8"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="10" t="s">
+      <c r="B88" s="8"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B85" s="8"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="10" t="s">
+      <c r="B89" s="8"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="8"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="10" t="s">
+      <c r="B90" s="8"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="8"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="10" t="s">
+      <c r="B91" s="8"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="8"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="10" t="s">
+      <c r="B92" s="8"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="8"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="10" t="s">
+      <c r="B93" s="8"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B90" s="8"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="10" t="s">
+      <c r="B94" s="8"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B91" s="8"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="10" t="s">
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B92" s="8"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="10" t="s">
+      <c r="B96" s="8"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="8"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="10" t="s">
+      <c r="B97" s="8"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B94" s="8"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="10" t="s">
+      <c r="B98" s="8"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B95" s="8"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="10" t="s">
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="8"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="10" t="s">
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="8"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="10" t="s">
+      <c r="B101" s="8"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B98" s="8"/>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="10" t="s">
+      <c r="B102" s="8"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B99" s="8"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="10" t="s">
+      <c r="B103" s="8"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B100" s="8"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="10" t="s">
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B101" s="8"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="10" t="s">
+      <c r="B105" s="8"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="8"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="10" t="s">
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="8"/>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="10" t="s">
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B104" s="8"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="10" t="s">
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B105" s="8"/>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="10" t="s">
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B106" s="8"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="10" t="s">
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B107" s="8"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="10" t="s">
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B108" s="8"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B109" s="8"/>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="10" t="s">
+      <c r="B112" s="8"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" s="8"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B110" s="8"/>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="10" t="s">
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B111" s="8"/>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="10" t="s">
+      <c r="B115" s="8"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B112" s="8"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="10" t="s">
+      <c r="B116" s="8"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B113" s="8"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="10" t="s">
+      <c r="B117" s="8"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B114" s="8"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="10" t="s">
+      <c r="B118" s="8"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B115" s="8"/>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="10" t="s">
+      <c r="B119" s="8"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B116" s="8"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="10" t="s">
+      <c r="B120" s="8"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B117" s="8"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="10" t="s">
+      <c r="B121" s="8"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B118" s="8"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="10" t="s">
+      <c r="B122" s="8"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B119" s="8"/>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="10" t="s">
+      <c r="B123" s="8"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B120" s="8"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="10" t="s">
+      <c r="B124" s="8"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B121" s="8"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="10" t="s">
+      <c r="B125" s="8"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B122" s="8"/>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="10" t="s">
+      <c r="B126" s="8"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B123" s="8"/>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="10" t="s">
+      <c r="B127" s="8"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B124" s="8"/>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="10" t="s">
+      <c r="B128" s="8"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B125" s="8"/>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="10" t="s">
+      <c r="B129" s="8"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B126" s="8"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B127" s="8"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B128" s="8"/>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B129" s="8"/>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="10" t="s">
-        <v>141</v>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/Develop/Projects/OSS/XLS2ExpressionMap/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="21560" windowHeight="10540" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="21555" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -17,9 +12,6 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -53,16 +45,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="149">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Memo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Direction</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -497,10 +485,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDI Note Off</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Articulation Type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -518,6 +502,14 @@
   </si>
   <si>
     <t>CC Value1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC LSB1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC MSB1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -525,7 +517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,14 +555,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="2"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -618,7 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,9 +709,6 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +726,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,71 +1031,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="35.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="18" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="4" customWidth="1"/>
-    <col min="7" max="9" width="9.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="50.6640625" style="5" customWidth="1"/>
+    <col min="7" max="11" width="9.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="J1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="K1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>142</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -1120,2057 +1104,1929 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>138</v>
+      <c r="C3" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3"/>
       <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6">
-        <v>120</v>
-      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6">
-        <v>120</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="6">
         <v>0</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="2"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6">
-        <v>120</v>
-      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="6">
         <v>0</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="2"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6">
-        <v>120</v>
-      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="6">
         <v>0</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6">
-        <v>120</v>
-      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>0</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6">
-        <v>120</v>
-      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3"/>
       <c r="B11" s="6">
         <v>0</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="2"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6">
-        <v>120</v>
-      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
         <v>0</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <v>120</v>
-      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3"/>
       <c r="B13" s="6">
         <v>0</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6">
-        <v>120</v>
-      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3"/>
       <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6">
-        <v>120</v>
-      </c>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="6">
         <v>0</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6">
-        <v>120</v>
-      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3"/>
       <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="2"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6">
-        <v>120</v>
-      </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3"/>
       <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="2"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6">
-        <v>120</v>
-      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3"/>
       <c r="B18" s="6">
         <v>0</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="2"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6">
-        <v>120</v>
-      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3"/>
       <c r="B19" s="6">
         <v>0</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="2"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6">
-        <v>120</v>
-      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3"/>
       <c r="B20" s="6">
         <v>0</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="2"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6">
-        <v>120</v>
-      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3"/>
       <c r="B21" s="6">
         <v>0</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="2"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6">
-        <v>120</v>
-      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="3"/>
       <c r="B22" s="6">
         <v>0</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="2"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6">
-        <v>120</v>
-      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="3"/>
       <c r="B23" s="6">
         <v>0</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="2"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6">
-        <v>120</v>
-      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="3"/>
       <c r="B24" s="6">
         <v>0</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="2"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6">
-        <v>120</v>
-      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="3"/>
       <c r="B25" s="6">
         <v>0</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="2"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <v>120</v>
-      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="3"/>
       <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="2"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6">
-        <v>120</v>
-      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="3"/>
       <c r="B27" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="2"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <v>120</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="3"/>
       <c r="B28" s="6">
         <v>0</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="2"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6">
-        <v>120</v>
-      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3"/>
       <c r="B29" s="6">
         <v>0</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="2"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6">
-        <v>120</v>
-      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3"/>
       <c r="B30" s="6">
         <v>0</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="2"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6">
-        <v>120</v>
-      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="3"/>
       <c r="B31" s="6">
         <v>0</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="2"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6">
-        <v>120</v>
-      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3"/>
       <c r="B32" s="6">
         <v>0</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="2"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6">
-        <v>120</v>
-      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3"/>
       <c r="B33" s="6">
         <v>0</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="2"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6">
-        <v>120</v>
-      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="3"/>
       <c r="B34" s="6">
         <v>0</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="2"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="6">
-        <v>120</v>
-      </c>
+      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="3"/>
       <c r="B35" s="6">
         <v>0</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="2"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6">
-        <v>120</v>
-      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="3"/>
       <c r="B36" s="6">
         <v>0</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="2"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="6">
-        <v>120</v>
-      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="3"/>
       <c r="B37" s="6">
         <v>0</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="2"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6">
-        <v>120</v>
-      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="3"/>
       <c r="B38" s="6">
         <v>0</v>
       </c>
-      <c r="C38" s="18"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="2"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="6">
-        <v>120</v>
-      </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="3"/>
       <c r="B39" s="6">
         <v>0</v>
       </c>
-      <c r="C39" s="18"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="2"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6">
-        <v>120</v>
-      </c>
+      <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="3"/>
       <c r="B40" s="6">
         <v>0</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="2"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6">
-        <v>120</v>
-      </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="3"/>
       <c r="B41" s="6">
         <v>0</v>
       </c>
-      <c r="C41" s="18"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="2"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="6">
-        <v>120</v>
-      </c>
+      <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="3"/>
       <c r="B42" s="6">
         <v>0</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="2"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6">
-        <v>120</v>
-      </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="3"/>
       <c r="B43" s="6">
         <v>0</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="2"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6">
-        <v>120</v>
-      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="3"/>
       <c r="B44" s="6">
         <v>0</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="2"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="6">
-        <v>120</v>
-      </c>
+      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="3"/>
       <c r="B45" s="6">
         <v>0</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="2"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6">
-        <v>120</v>
-      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="3"/>
       <c r="B46" s="6">
         <v>0</v>
       </c>
-      <c r="C46" s="18"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="2"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6">
-        <v>120</v>
-      </c>
+      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="3"/>
       <c r="B47" s="6">
         <v>0</v>
       </c>
-      <c r="C47" s="18"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="2"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6">
-        <v>120</v>
-      </c>
+      <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="3"/>
       <c r="B48" s="6">
         <v>0</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="2"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6">
-        <v>120</v>
-      </c>
+      <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="3"/>
       <c r="B49" s="6">
         <v>0</v>
       </c>
-      <c r="C49" s="18"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="2"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="6">
-        <v>120</v>
-      </c>
+      <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="3"/>
       <c r="B50" s="6">
         <v>0</v>
       </c>
-      <c r="C50" s="18"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="2"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6">
-        <v>120</v>
-      </c>
+      <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="3"/>
       <c r="B51" s="6">
         <v>0</v>
       </c>
-      <c r="C51" s="18"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="2"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6">
-        <v>120</v>
-      </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="3"/>
       <c r="B52" s="6">
         <v>0</v>
       </c>
-      <c r="C52" s="18"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="2"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6">
-        <v>120</v>
-      </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="3"/>
       <c r="B53" s="6">
         <v>0</v>
       </c>
-      <c r="C53" s="18"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="2"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6">
-        <v>120</v>
-      </c>
+      <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="3"/>
       <c r="B54" s="6">
         <v>0</v>
       </c>
-      <c r="C54" s="18"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="2"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6">
-        <v>120</v>
-      </c>
+      <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="3"/>
       <c r="B55" s="6">
         <v>0</v>
       </c>
-      <c r="C55" s="18"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="2"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="6">
-        <v>120</v>
-      </c>
+      <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="3"/>
       <c r="B56" s="6">
         <v>0</v>
       </c>
-      <c r="C56" s="18"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="2"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="6">
-        <v>120</v>
-      </c>
+      <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="3"/>
       <c r="B57" s="6">
         <v>0</v>
       </c>
-      <c r="C57" s="18"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="2"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="6">
-        <v>120</v>
-      </c>
+      <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="3"/>
       <c r="B58" s="6">
         <v>0</v>
       </c>
-      <c r="C58" s="18"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="2"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="6">
-        <v>120</v>
-      </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="3"/>
       <c r="B59" s="6">
         <v>0</v>
       </c>
-      <c r="C59" s="18"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="2"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6">
-        <v>120</v>
-      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="3"/>
       <c r="B60" s="6">
         <v>0</v>
       </c>
-      <c r="C60" s="18"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="2"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6">
-        <v>120</v>
-      </c>
+      <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="3"/>
       <c r="B61" s="6">
         <v>0</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="2"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6">
-        <v>120</v>
-      </c>
+      <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="3"/>
       <c r="B62" s="6">
         <v>0</v>
       </c>
-      <c r="C62" s="18"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="2"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6">
-        <v>120</v>
-      </c>
+      <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="3"/>
       <c r="B63" s="6">
         <v>0</v>
       </c>
-      <c r="C63" s="18"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="2"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="6">
-        <v>120</v>
-      </c>
+      <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="3"/>
       <c r="B64" s="6">
         <v>0</v>
       </c>
-      <c r="C64" s="18"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="2"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="6">
-        <v>120</v>
-      </c>
+      <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="3"/>
       <c r="B65" s="6">
         <v>0</v>
       </c>
-      <c r="C65" s="18"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="2"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6">
-        <v>120</v>
-      </c>
+      <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="3"/>
       <c r="B66" s="6">
         <v>0</v>
       </c>
-      <c r="C66" s="18"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="2"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6">
-        <v>120</v>
-      </c>
+      <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="3"/>
       <c r="B67" s="6">
         <v>0</v>
       </c>
-      <c r="C67" s="18"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="2"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6">
-        <v>120</v>
-      </c>
+      <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="3"/>
       <c r="B68" s="6">
         <v>0</v>
       </c>
-      <c r="C68" s="18"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="2"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6">
-        <v>120</v>
-      </c>
+      <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="3"/>
       <c r="B69" s="6">
         <v>0</v>
       </c>
-      <c r="C69" s="18"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="2"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6">
-        <v>120</v>
-      </c>
+      <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
-      <c r="J69" s="3"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="3"/>
       <c r="B70" s="6">
         <v>0</v>
       </c>
-      <c r="C70" s="18"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="2"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6">
-        <v>120</v>
-      </c>
+      <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
-      <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="3"/>
       <c r="B71" s="6">
         <v>0</v>
       </c>
-      <c r="C71" s="18"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="2"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="6">
-        <v>120</v>
-      </c>
+      <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="3"/>
       <c r="B72" s="6">
         <v>0</v>
       </c>
-      <c r="C72" s="18"/>
+      <c r="C72" s="17"/>
       <c r="D72" s="2"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6">
-        <v>120</v>
-      </c>
+      <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
-      <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="3"/>
       <c r="B73" s="6">
         <v>0</v>
       </c>
-      <c r="C73" s="18"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="2"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6">
-        <v>120</v>
-      </c>
+      <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="3"/>
       <c r="B74" s="6">
         <v>0</v>
       </c>
-      <c r="C74" s="18"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="2"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="6">
-        <v>120</v>
-      </c>
+      <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
-      <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="3"/>
       <c r="B75" s="6">
         <v>0</v>
       </c>
-      <c r="C75" s="18"/>
+      <c r="C75" s="17"/>
       <c r="D75" s="2"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="6">
-        <v>120</v>
-      </c>
+      <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="3"/>
       <c r="B76" s="6">
         <v>0</v>
       </c>
-      <c r="C76" s="18"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="2"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6">
-        <v>120</v>
-      </c>
+      <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="3"/>
       <c r="B77" s="6">
         <v>0</v>
       </c>
-      <c r="C77" s="18"/>
+      <c r="C77" s="17"/>
       <c r="D77" s="2"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="6">
-        <v>120</v>
-      </c>
+      <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="3"/>
       <c r="B78" s="6">
         <v>0</v>
       </c>
-      <c r="C78" s="18"/>
+      <c r="C78" s="17"/>
       <c r="D78" s="2"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6">
-        <v>120</v>
-      </c>
+      <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="3"/>
       <c r="B79" s="6">
         <v>0</v>
       </c>
-      <c r="C79" s="18"/>
+      <c r="C79" s="17"/>
       <c r="D79" s="2"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="6">
-        <v>120</v>
-      </c>
+      <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="3"/>
       <c r="B80" s="6">
         <v>0</v>
       </c>
-      <c r="C80" s="18"/>
+      <c r="C80" s="17"/>
       <c r="D80" s="2"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="6">
-        <v>120</v>
-      </c>
+      <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
-      <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="3"/>
       <c r="B81" s="6">
         <v>0</v>
       </c>
-      <c r="C81" s="18"/>
+      <c r="C81" s="17"/>
       <c r="D81" s="2"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="6">
-        <v>120</v>
-      </c>
+      <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="3"/>
       <c r="B82" s="6">
         <v>0</v>
       </c>
-      <c r="C82" s="18"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="2"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="6">
-        <v>120</v>
-      </c>
+      <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="3"/>
       <c r="B83" s="6">
         <v>0</v>
       </c>
-      <c r="C83" s="18"/>
+      <c r="C83" s="17"/>
       <c r="D83" s="2"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="6">
-        <v>120</v>
-      </c>
+      <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="3"/>
       <c r="B84" s="6">
         <v>0</v>
       </c>
-      <c r="C84" s="18"/>
+      <c r="C84" s="17"/>
       <c r="D84" s="2"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6">
-        <v>120</v>
-      </c>
+      <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="3"/>
       <c r="B85" s="6">
         <v>0</v>
       </c>
-      <c r="C85" s="18"/>
+      <c r="C85" s="17"/>
       <c r="D85" s="2"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="6">
-        <v>120</v>
-      </c>
+      <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="3"/>
       <c r="B86" s="6">
         <v>0</v>
       </c>
-      <c r="C86" s="18"/>
+      <c r="C86" s="17"/>
       <c r="D86" s="2"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="6">
-        <v>120</v>
-      </c>
+      <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="3"/>
       <c r="B87" s="6">
         <v>0</v>
       </c>
-      <c r="C87" s="18"/>
+      <c r="C87" s="17"/>
       <c r="D87" s="2"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="6">
-        <v>120</v>
-      </c>
+      <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="3"/>
       <c r="B88" s="6">
         <v>0</v>
       </c>
-      <c r="C88" s="18"/>
+      <c r="C88" s="17"/>
       <c r="D88" s="2"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="6">
-        <v>120</v>
-      </c>
+      <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="3"/>
       <c r="B89" s="6">
         <v>0</v>
       </c>
-      <c r="C89" s="18"/>
+      <c r="C89" s="17"/>
       <c r="D89" s="2"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="6">
-        <v>120</v>
-      </c>
+      <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
-      <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="3"/>
       <c r="B90" s="6">
         <v>0</v>
       </c>
-      <c r="C90" s="18"/>
+      <c r="C90" s="17"/>
       <c r="D90" s="2"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="6">
-        <v>120</v>
-      </c>
+      <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="3"/>
       <c r="B91" s="6">
         <v>0</v>
       </c>
-      <c r="C91" s="18"/>
+      <c r="C91" s="17"/>
       <c r="D91" s="2"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="6">
-        <v>120</v>
-      </c>
+      <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="3"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="3"/>
       <c r="B92" s="6">
         <v>0</v>
       </c>
-      <c r="C92" s="18"/>
+      <c r="C92" s="17"/>
       <c r="D92" s="2"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="6">
-        <v>120</v>
-      </c>
+      <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
-      <c r="J92" s="3"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="3"/>
       <c r="B93" s="6">
         <v>0</v>
       </c>
-      <c r="C93" s="18"/>
+      <c r="C93" s="17"/>
       <c r="D93" s="2"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6">
-        <v>120</v>
-      </c>
+      <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="3"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="3"/>
       <c r="B94" s="6">
         <v>0</v>
       </c>
-      <c r="C94" s="18"/>
+      <c r="C94" s="17"/>
       <c r="D94" s="2"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="6">
-        <v>120</v>
-      </c>
+      <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
-      <c r="J94" s="3"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="3"/>
       <c r="B95" s="6">
         <v>0</v>
       </c>
-      <c r="C95" s="18"/>
+      <c r="C95" s="17"/>
       <c r="D95" s="2"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="6">
-        <v>120</v>
-      </c>
+      <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="3"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="3"/>
       <c r="B96" s="6">
         <v>0</v>
       </c>
-      <c r="C96" s="18"/>
+      <c r="C96" s="17"/>
       <c r="D96" s="2"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="6">
-        <v>120</v>
-      </c>
+      <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
-      <c r="J96" s="3"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="3"/>
       <c r="B97" s="6">
         <v>0</v>
       </c>
-      <c r="C97" s="18"/>
+      <c r="C97" s="17"/>
       <c r="D97" s="2"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="6">
-        <v>120</v>
-      </c>
+      <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="3"/>
       <c r="B98" s="6">
         <v>0</v>
       </c>
-      <c r="C98" s="18"/>
+      <c r="C98" s="17"/>
       <c r="D98" s="2"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="6">
-        <v>120</v>
-      </c>
+      <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
-      <c r="J98" s="3"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="3"/>
       <c r="B99" s="6">
         <v>0</v>
       </c>
-      <c r="C99" s="18"/>
+      <c r="C99" s="17"/>
       <c r="D99" s="2"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="6">
-        <v>120</v>
-      </c>
+      <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="3"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="3"/>
       <c r="B100" s="6">
         <v>0</v>
       </c>
-      <c r="C100" s="18"/>
+      <c r="C100" s="17"/>
       <c r="D100" s="2"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="6">
-        <v>120</v>
-      </c>
+      <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="3"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="3"/>
       <c r="B101" s="6">
         <v>0</v>
       </c>
-      <c r="C101" s="18"/>
+      <c r="C101" s="17"/>
       <c r="D101" s="2"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="6">
-        <v>120</v>
-      </c>
+      <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
-      <c r="J101" s="3"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="3"/>
       <c r="B102" s="6">
         <v>0</v>
       </c>
-      <c r="C102" s="18"/>
+      <c r="C102" s="17"/>
       <c r="D102" s="2"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="6">
-        <v>120</v>
-      </c>
+      <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
-      <c r="J102" s="3"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="3"/>
       <c r="B103" s="6">
         <v>0</v>
       </c>
-      <c r="C103" s="18"/>
+      <c r="C103" s="17"/>
       <c r="D103" s="2"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="6">
-        <v>120</v>
-      </c>
+      <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
-      <c r="J103" s="3"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="3"/>
       <c r="B104" s="6">
         <v>0</v>
       </c>
-      <c r="C104" s="18"/>
+      <c r="C104" s="17"/>
       <c r="D104" s="2"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="6">
-        <v>120</v>
-      </c>
+      <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
-      <c r="J104" s="3"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="3"/>
       <c r="B105" s="6">
         <v>0</v>
       </c>
-      <c r="C105" s="18"/>
+      <c r="C105" s="17"/>
       <c r="D105" s="2"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="6">
-        <v>120</v>
-      </c>
+      <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
-      <c r="J105" s="3"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="3"/>
       <c r="B106" s="6">
         <v>0</v>
       </c>
-      <c r="C106" s="18"/>
+      <c r="C106" s="17"/>
       <c r="D106" s="2"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="6">
-        <v>120</v>
-      </c>
+      <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
-      <c r="J106" s="3"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="3"/>
       <c r="B107" s="6">
         <v>0</v>
       </c>
-      <c r="C107" s="18"/>
+      <c r="C107" s="17"/>
       <c r="D107" s="2"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="6">
-        <v>120</v>
-      </c>
+      <c r="G107" s="6"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
-      <c r="J107" s="3"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="3"/>
       <c r="B108" s="6">
         <v>0</v>
       </c>
-      <c r="C108" s="18"/>
+      <c r="C108" s="17"/>
       <c r="D108" s="2"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="6">
-        <v>120</v>
-      </c>
+      <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
-      <c r="J108" s="3"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="3"/>
       <c r="B109" s="6">
         <v>0</v>
       </c>
-      <c r="C109" s="18"/>
+      <c r="C109" s="17"/>
       <c r="D109" s="2"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="6">
-        <v>120</v>
-      </c>
+      <c r="G109" s="6"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
-      <c r="J109" s="3"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="3"/>
       <c r="B110" s="6">
         <v>0</v>
       </c>
-      <c r="C110" s="18"/>
+      <c r="C110" s="17"/>
       <c r="D110" s="2"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="6">
-        <v>120</v>
-      </c>
+      <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
-      <c r="J110" s="3"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="3"/>
       <c r="B111" s="6">
         <v>0</v>
       </c>
-      <c r="C111" s="18"/>
+      <c r="C111" s="17"/>
       <c r="D111" s="2"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="6">
-        <v>120</v>
-      </c>
+      <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
-      <c r="J111" s="3"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="3"/>
       <c r="B112" s="6">
         <v>0</v>
       </c>
-      <c r="C112" s="18"/>
+      <c r="C112" s="17"/>
       <c r="D112" s="2"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="6">
-        <v>120</v>
-      </c>
+      <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
-      <c r="J112" s="3"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="3"/>
       <c r="B113" s="6">
         <v>0</v>
       </c>
-      <c r="C113" s="18"/>
+      <c r="C113" s="17"/>
       <c r="D113" s="2"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="6">
-        <v>120</v>
-      </c>
+      <c r="G113" s="6"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
-      <c r="J113" s="3"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="3"/>
       <c r="B114" s="6">
         <v>0</v>
       </c>
-      <c r="C114" s="18"/>
+      <c r="C114" s="17"/>
       <c r="D114" s="2"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="6">
-        <v>120</v>
-      </c>
+      <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
-      <c r="J114" s="3"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="3"/>
       <c r="B115" s="6">
         <v>0</v>
       </c>
-      <c r="C115" s="18"/>
+      <c r="C115" s="17"/>
       <c r="D115" s="2"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="6">
-        <v>120</v>
-      </c>
+      <c r="G115" s="6"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
-      <c r="J115" s="3"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="3"/>
       <c r="B116" s="6">
         <v>0</v>
       </c>
-      <c r="C116" s="18"/>
+      <c r="C116" s="17"/>
       <c r="D116" s="2"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="6">
-        <v>120</v>
-      </c>
+      <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
-      <c r="J116" s="3"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="3"/>
       <c r="B117" s="6">
         <v>0</v>
       </c>
-      <c r="C117" s="18"/>
+      <c r="C117" s="17"/>
       <c r="D117" s="2"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="6">
-        <v>120</v>
-      </c>
+      <c r="G117" s="6"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
-      <c r="J117" s="3"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="3"/>
       <c r="B118" s="6">
         <v>0</v>
       </c>
-      <c r="C118" s="18"/>
+      <c r="C118" s="17"/>
       <c r="D118" s="2"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="6">
-        <v>120</v>
-      </c>
+      <c r="G118" s="6"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
-      <c r="J118" s="3"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="3"/>
       <c r="B119" s="6">
         <v>0</v>
       </c>
-      <c r="C119" s="18"/>
+      <c r="C119" s="17"/>
       <c r="D119" s="2"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="6">
-        <v>120</v>
-      </c>
+      <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
-      <c r="J119" s="3"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="3"/>
       <c r="B120" s="6">
         <v>0</v>
       </c>
-      <c r="C120" s="18"/>
+      <c r="C120" s="17"/>
       <c r="D120" s="2"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="6">
-        <v>120</v>
-      </c>
+      <c r="G120" s="6"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
-      <c r="J120" s="3"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="3"/>
       <c r="B121" s="6">
         <v>0</v>
       </c>
-      <c r="C121" s="18"/>
+      <c r="C121" s="17"/>
       <c r="D121" s="2"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="6">
-        <v>120</v>
-      </c>
+      <c r="G121" s="6"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
-      <c r="J121" s="3"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="3"/>
       <c r="B122" s="6">
         <v>0</v>
       </c>
-      <c r="C122" s="18"/>
+      <c r="C122" s="17"/>
       <c r="D122" s="2"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="6">
-        <v>120</v>
-      </c>
+      <c r="G122" s="6"/>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
-      <c r="J122" s="3"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="3"/>
       <c r="B123" s="6">
         <v>0</v>
       </c>
-      <c r="C123" s="18"/>
+      <c r="C123" s="17"/>
       <c r="D123" s="2"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="6">
-        <v>120</v>
-      </c>
+      <c r="G123" s="6"/>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
-      <c r="J123" s="3"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="3"/>
       <c r="B124" s="6">
         <v>0</v>
       </c>
-      <c r="C124" s="18"/>
+      <c r="C124" s="17"/>
       <c r="D124" s="2"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="6">
-        <v>120</v>
-      </c>
+      <c r="G124" s="6"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
-      <c r="J124" s="3"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="3"/>
       <c r="B125" s="6">
         <v>0</v>
       </c>
-      <c r="C125" s="18"/>
+      <c r="C125" s="17"/>
       <c r="D125" s="2"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
-      <c r="G125" s="6">
-        <v>120</v>
-      </c>
+      <c r="G125" s="6"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
-      <c r="J125" s="3"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="3"/>
       <c r="B126" s="6">
         <v>0</v>
       </c>
-      <c r="C126" s="18"/>
+      <c r="C126" s="17"/>
       <c r="D126" s="2"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="6">
-        <v>120</v>
-      </c>
+      <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
-      <c r="J126" s="3"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="3"/>
       <c r="B127" s="6">
         <v>0</v>
       </c>
-      <c r="C127" s="18"/>
+      <c r="C127" s="17"/>
       <c r="D127" s="2"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="6">
-        <v>120</v>
-      </c>
+      <c r="G127" s="6"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
-      <c r="J127" s="3"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="3"/>
       <c r="B128" s="6">
         <v>0</v>
       </c>
-      <c r="C128" s="18"/>
+      <c r="C128" s="17"/>
       <c r="D128" s="2"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="6">
-        <v>120</v>
-      </c>
+      <c r="G128" s="6"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
-      <c r="J128" s="3"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="3"/>
       <c r="B129" s="6">
         <v>0</v>
       </c>
-      <c r="C129" s="18"/>
+      <c r="C129" s="17"/>
       <c r="D129" s="2"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
-      <c r="G129" s="6">
-        <v>120</v>
-      </c>
+      <c r="G129" s="6"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
-      <c r="J129" s="3"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations count="3">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
@@ -3178,7 +3034,15 @@
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+      <formula1>0</formula1>
+      <formula2>127</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+      <formula1>0</formula1>
+      <formula2>127</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3201,7 +3065,7 @@
           </x14:formula1>
           <xm:sqref>E2:E129</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>
@@ -3220,1450 +3084,1450 @@
   </sheetPr>
   <dimension ref="A1:C258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="23.25" customHeight="1">
       <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="10"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="C4" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="20">
         <v>3</v>
       </c>
-      <c r="C4" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="8"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="8"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="8"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="8"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="8"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="8"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="8"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="8"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="8"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="8"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="8"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="8"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="8"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="8"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="8"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="8"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="8"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="8"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B79" s="8"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="8"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="B82" s="8"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="8"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="8"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="8"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="8"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
+      <c r="B87" s="8"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="8"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
+      <c r="B88" s="8"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="8"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
+      <c r="B89" s="8"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="8"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+      <c r="B90" s="8"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="8"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="B91" s="8"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="8"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+      <c r="B92" s="8"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="8"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+      <c r="B93" s="8"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="8"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
+      <c r="B94" s="8"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="8"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="8"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
+      <c r="B96" s="8"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="8"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
+      <c r="B97" s="8"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="8"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
+      <c r="B98" s="8"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="8"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="8"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="8"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+      <c r="B101" s="8"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="8"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="B102" s="8"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="8"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
+      <c r="B103" s="8"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="8"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="8"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
+      <c r="B105" s="8"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="8"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="8"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="8"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="8"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="8"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="8"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="8"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="22" t="s">
+      <c r="B112" s="8"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="8"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
+      <c r="B113" s="8"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B113" s="8"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="8"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
+      <c r="B115" s="8"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B115" s="8"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="22" t="s">
+      <c r="B116" s="8"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B116" s="8"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
+      <c r="B117" s="8"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B117" s="8"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
+      <c r="B118" s="8"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="8"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
+      <c r="B119" s="8"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B119" s="8"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="22" t="s">
+      <c r="B120" s="8"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B120" s="8"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="22" t="s">
+      <c r="B121" s="8"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="8"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="22" t="s">
+      <c r="B122" s="8"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B122" s="8"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="22" t="s">
+      <c r="B123" s="8"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B123" s="8"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
+      <c r="B124" s="8"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B124" s="8"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="22" t="s">
+      <c r="B125" s="8"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B125" s="8"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
+      <c r="B126" s="8"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B126" s="8"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="22" t="s">
+      <c r="B127" s="8"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B127" s="8"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
+      <c r="B128" s="8"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B128" s="8"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
+      <c r="B129" s="8"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B129" s="8"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1">
       <c r="A177" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1">
       <c r="A178" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1">
       <c r="A179" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1">
       <c r="A180" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1">
       <c r="A181" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1">
       <c r="A182" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1">
       <c r="A183" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1">
       <c r="A184" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1">
       <c r="A185" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1">
       <c r="A186" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1">
       <c r="A187" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1">
       <c r="A188" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1">
       <c r="A189" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1">
       <c r="A190" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1">
       <c r="A191" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1">
       <c r="A192" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1">
       <c r="A193" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1">
       <c r="A194" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1">
       <c r="A195" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1">
       <c r="A196" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1">
       <c r="A197" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1">
       <c r="A198" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1">
       <c r="A199" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1">
       <c r="A200" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1">
       <c r="A201" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1">
       <c r="A202" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1">
       <c r="A203" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1">
       <c r="A204" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1">
       <c r="A205" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1">
       <c r="A206" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1">
       <c r="A207" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1">
       <c r="A208" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1">
       <c r="A209" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1">
       <c r="A210" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1">
       <c r="A211" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1">
       <c r="A212" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1">
       <c r="A213" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1">
       <c r="A214" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1">
       <c r="A215" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1">
       <c r="A216" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1">
       <c r="A217" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1">
       <c r="A218" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1">
       <c r="A219" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1">
       <c r="A220" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1">
       <c r="A221" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1">
       <c r="A222" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1">
       <c r="A223" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1">
       <c r="A224" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1">
       <c r="A225" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1">
       <c r="A226" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1">
       <c r="A227" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1">
       <c r="A228" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1">
       <c r="A229" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1">
       <c r="A230" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1">
       <c r="A231" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1">
       <c r="A232" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1">
       <c r="A233" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1">
       <c r="A234" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1">
       <c r="A235" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1">
       <c r="A236" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1">
       <c r="A237" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1">
       <c r="A238" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1">
       <c r="A239" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1">
       <c r="A240" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1">
       <c r="A241" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1">
       <c r="A242" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1">
       <c r="A243" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1">
       <c r="A244" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1">
       <c r="A245" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1">
       <c r="A246" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1">
       <c r="A247" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1">
       <c r="A248" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1">
       <c r="A249" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1">
       <c r="A250" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1">
       <c r="A251" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1">
       <c r="A252" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1">
       <c r="A253" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1">
       <c r="A254" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1">
       <c r="A255" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1">
       <c r="A256" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1">
       <c r="A257" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1">
       <c r="A258" s="3">
         <v>127</v>
       </c>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/Develop/Projects/OSS/XLS2ExpressionMap/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2380" yWindow="3940" windowWidth="24820" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="DO NOT MODIFY!" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="DO NOT MODIFY!" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -21,23 +31,23 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>作成者</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">0=Default Color</t>
+          <t>0=Default Color</t>
         </r>
       </text>
     </comment>
@@ -48,501 +58,446 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="144">
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Articulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Articulation Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDI Note1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocity1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC No1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC Value1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC LSB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC MSB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Chord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-2 (0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDI Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#-2 (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-2 (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D#-2 (3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-2 (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-2 (5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#-2 (6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-2 (7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G#-2 (8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-2 (9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A#-2 (10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-2 (11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-1 (12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#-1 (13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-1 (14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D#-1 (15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-1 (16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1 (17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#-1 (18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-1 (19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G#-1 (20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-1 (21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A#-1 (22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-1 (23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0 (24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#0 (25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D0 (26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D#0 (27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0 (28)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F0 (29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#0 (30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G0 (31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G#0 (32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0 (33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A#0 (34)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0 (35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1 (36)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#1 (37)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1 (38)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D#1 (39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1 (40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1 (41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#1 (42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1 (43)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G#1 (44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1 (45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A#1 (46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1 (47)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2 (48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#2 (49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2 (50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D#2 (51)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2 (52)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F2 (53)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#2 (54)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2 (55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G#2 (56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2 (57)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A#2 (58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2 (59)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3 (60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#3 (61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3 (62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D#3 (63)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3 (64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F3 (65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#3 (66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G3 (67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G#3 (68)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3 (69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A#3 (70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B3 (71)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4 (72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#4 (73)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4 (74)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D#4 (75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E4 (76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F4 (77)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#4 (78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G4 (79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G#4 (80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A4 (81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A#4 (82)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B4 (83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5 (84)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#5 (85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5 (86)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D#5 (87)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5 (88)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F5 (89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#5 (90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G5 (91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G#5 (92)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5 (93)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A#5 (94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B5 (95)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6 (96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#6 (97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6 (98)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D#6 (99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E6 (100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F6 (101)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#6 (102)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G6 (103)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G#6 (104)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A6 (105)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A#6 (106)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6 (107)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7 (108)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#7 (109)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7 (110)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D#7 (111)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7 (112)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F7 (113)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#7 (114)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G7 (115)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G#7 (116)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7 (117)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A#7 (118)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B7 (119)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8 (120)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#8 (121)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8 (122)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D#8 (123)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E8 (124)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F8 (125)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#8 (126)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G8 (127)</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Articulation</t>
+  </si>
+  <si>
+    <t>Articulation Type</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>MIDI Note1</t>
+  </si>
+  <si>
+    <t>Velocity1</t>
+  </si>
+  <si>
+    <t>CC No1</t>
+  </si>
+  <si>
+    <t>CC Value1</t>
+  </si>
+  <si>
+    <t>PC LSB1</t>
+  </si>
+  <si>
+    <t>PC MSB1</t>
+  </si>
+  <si>
+    <t>IDLE</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Power Chord</t>
+  </si>
+  <si>
+    <t>C-2 (0)</t>
+  </si>
+  <si>
+    <t>MIDI Notes</t>
+  </si>
+  <si>
+    <t>C#-2 (1)</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>D-2 (2)</t>
+  </si>
+  <si>
+    <t>D#-2 (3)</t>
+  </si>
+  <si>
+    <t>E-2 (4)</t>
+  </si>
+  <si>
+    <t>F-2 (5)</t>
+  </si>
+  <si>
+    <t>F#-2 (6)</t>
+  </si>
+  <si>
+    <t>G-2 (7)</t>
+  </si>
+  <si>
+    <t>G#-2 (8)</t>
+  </si>
+  <si>
+    <t>A-2 (9)</t>
+  </si>
+  <si>
+    <t>A#-2 (10)</t>
+  </si>
+  <si>
+    <t>B-2 (11)</t>
+  </si>
+  <si>
+    <t>C-1 (12)</t>
+  </si>
+  <si>
+    <t>C#-1 (13)</t>
+  </si>
+  <si>
+    <t>D-1 (14)</t>
+  </si>
+  <si>
+    <t>D#-1 (15)</t>
+  </si>
+  <si>
+    <t>E-1 (16)</t>
+  </si>
+  <si>
+    <t>F-1 (17)</t>
+  </si>
+  <si>
+    <t>F#-1 (18)</t>
+  </si>
+  <si>
+    <t>G-1 (19)</t>
+  </si>
+  <si>
+    <t>G#-1 (20)</t>
+  </si>
+  <si>
+    <t>A-1 (21)</t>
+  </si>
+  <si>
+    <t>A#-1 (22)</t>
+  </si>
+  <si>
+    <t>B-1 (23)</t>
+  </si>
+  <si>
+    <t>C0 (24)</t>
+  </si>
+  <si>
+    <t>C#0 (25)</t>
+  </si>
+  <si>
+    <t>D0 (26)</t>
+  </si>
+  <si>
+    <t>D#0 (27)</t>
+  </si>
+  <si>
+    <t>E0 (28)</t>
+  </si>
+  <si>
+    <t>F0 (29)</t>
+  </si>
+  <si>
+    <t>F#0 (30)</t>
+  </si>
+  <si>
+    <t>G0 (31)</t>
+  </si>
+  <si>
+    <t>G#0 (32)</t>
+  </si>
+  <si>
+    <t>A0 (33)</t>
+  </si>
+  <si>
+    <t>A#0 (34)</t>
+  </si>
+  <si>
+    <t>B0 (35)</t>
+  </si>
+  <si>
+    <t>C1 (36)</t>
+  </si>
+  <si>
+    <t>C#1 (37)</t>
+  </si>
+  <si>
+    <t>D1 (38)</t>
+  </si>
+  <si>
+    <t>D#1 (39)</t>
+  </si>
+  <si>
+    <t>E1 (40)</t>
+  </si>
+  <si>
+    <t>F1 (41)</t>
+  </si>
+  <si>
+    <t>F#1 (42)</t>
+  </si>
+  <si>
+    <t>G1 (43)</t>
+  </si>
+  <si>
+    <t>G#1 (44)</t>
+  </si>
+  <si>
+    <t>A1 (45)</t>
+  </si>
+  <si>
+    <t>A#1 (46)</t>
+  </si>
+  <si>
+    <t>B1 (47)</t>
+  </si>
+  <si>
+    <t>C2 (48)</t>
+  </si>
+  <si>
+    <t>C#2 (49)</t>
+  </si>
+  <si>
+    <t>D2 (50)</t>
+  </si>
+  <si>
+    <t>D#2 (51)</t>
+  </si>
+  <si>
+    <t>E2 (52)</t>
+  </si>
+  <si>
+    <t>F2 (53)</t>
+  </si>
+  <si>
+    <t>F#2 (54)</t>
+  </si>
+  <si>
+    <t>G2 (55)</t>
+  </si>
+  <si>
+    <t>G#2 (56)</t>
+  </si>
+  <si>
+    <t>A2 (57)</t>
+  </si>
+  <si>
+    <t>A#2 (58)</t>
+  </si>
+  <si>
+    <t>B2 (59)</t>
+  </si>
+  <si>
+    <t>C3 (60)</t>
+  </si>
+  <si>
+    <t>C#3 (61)</t>
+  </si>
+  <si>
+    <t>D3 (62)</t>
+  </si>
+  <si>
+    <t>D#3 (63)</t>
+  </si>
+  <si>
+    <t>E3 (64)</t>
+  </si>
+  <si>
+    <t>F3 (65)</t>
+  </si>
+  <si>
+    <t>F#3 (66)</t>
+  </si>
+  <si>
+    <t>G3 (67)</t>
+  </si>
+  <si>
+    <t>G#3 (68)</t>
+  </si>
+  <si>
+    <t>A3 (69)</t>
+  </si>
+  <si>
+    <t>A#3 (70)</t>
+  </si>
+  <si>
+    <t>B3 (71)</t>
+  </si>
+  <si>
+    <t>C4 (72)</t>
+  </si>
+  <si>
+    <t>C#4 (73)</t>
+  </si>
+  <si>
+    <t>D4 (74)</t>
+  </si>
+  <si>
+    <t>D#4 (75)</t>
+  </si>
+  <si>
+    <t>E4 (76)</t>
+  </si>
+  <si>
+    <t>F4 (77)</t>
+  </si>
+  <si>
+    <t>F#4 (78)</t>
+  </si>
+  <si>
+    <t>G4 (79)</t>
+  </si>
+  <si>
+    <t>G#4 (80)</t>
+  </si>
+  <si>
+    <t>A4 (81)</t>
+  </si>
+  <si>
+    <t>A#4 (82)</t>
+  </si>
+  <si>
+    <t>B4 (83)</t>
+  </si>
+  <si>
+    <t>C5 (84)</t>
+  </si>
+  <si>
+    <t>C#5 (85)</t>
+  </si>
+  <si>
+    <t>D5 (86)</t>
+  </si>
+  <si>
+    <t>D#5 (87)</t>
+  </si>
+  <si>
+    <t>E5 (88)</t>
+  </si>
+  <si>
+    <t>F5 (89)</t>
+  </si>
+  <si>
+    <t>F#5 (90)</t>
+  </si>
+  <si>
+    <t>G5 (91)</t>
+  </si>
+  <si>
+    <t>G#5 (92)</t>
+  </si>
+  <si>
+    <t>A5 (93)</t>
+  </si>
+  <si>
+    <t>A#5 (94)</t>
+  </si>
+  <si>
+    <t>B5 (95)</t>
+  </si>
+  <si>
+    <t>C6 (96)</t>
+  </si>
+  <si>
+    <t>C#6 (97)</t>
+  </si>
+  <si>
+    <t>D6 (98)</t>
+  </si>
+  <si>
+    <t>D#6 (99)</t>
+  </si>
+  <si>
+    <t>E6 (100)</t>
+  </si>
+  <si>
+    <t>F6 (101)</t>
+  </si>
+  <si>
+    <t>F#6 (102)</t>
+  </si>
+  <si>
+    <t>G6 (103)</t>
+  </si>
+  <si>
+    <t>G#6 (104)</t>
+  </si>
+  <si>
+    <t>A6 (105)</t>
+  </si>
+  <si>
+    <t>A#6 (106)</t>
+  </si>
+  <si>
+    <t>B6 (107)</t>
+  </si>
+  <si>
+    <t>C7 (108)</t>
+  </si>
+  <si>
+    <t>C#7 (109)</t>
+  </si>
+  <si>
+    <t>D7 (110)</t>
+  </si>
+  <si>
+    <t>D#7 (111)</t>
+  </si>
+  <si>
+    <t>E7 (112)</t>
+  </si>
+  <si>
+    <t>F7 (113)</t>
+  </si>
+  <si>
+    <t>F#7 (114)</t>
+  </si>
+  <si>
+    <t>G7 (115)</t>
+  </si>
+  <si>
+    <t>G#7 (116)</t>
+  </si>
+  <si>
+    <t>A7 (117)</t>
+  </si>
+  <si>
+    <t>A#7 (118)</t>
+  </si>
+  <si>
+    <t>B7 (119)</t>
+  </si>
+  <si>
+    <t>C8 (120)</t>
+  </si>
+  <si>
+    <t>C#8 (121)</t>
+  </si>
+  <si>
+    <t>D8 (122)</t>
+  </si>
+  <si>
+    <t>D#8 (123)</t>
+  </si>
+  <si>
+    <t>E8 (124)</t>
+  </si>
+  <si>
+    <t>F8 (125)</t>
+  </si>
+  <si>
+    <t>F#8 (126)</t>
+  </si>
+  <si>
+    <t>G8 (127)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF808080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006600"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF996600"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCC0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
     </font>
@@ -561,7 +516,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -574,49 +529,24 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFEBF1DE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFDBEEF4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFF2DCDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -667,254 +597,148 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="4">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -973,36 +797,363 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="39.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="17.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="2" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="9.84"/>
+    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="17.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="7" max="11" width="10.5" style="2" customWidth="1"/>
+    <col min="12" max="1025" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1037,11 +1188,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="11">
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1050,7 +1201,7 @@
       <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
       <c r="F2" s="14"/>
@@ -1060,11 +1211,11 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1073,31 +1224,27 @@
       <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="14">
         <v>100</v>
       </c>
-      <c r="H3" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="14" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" s="14" t="n">
-        <v>56</v>
-      </c>
-      <c r="K3" s="14" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>23</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="11">
         <v>0</v>
       </c>
       <c r="C4" s="12"/>
@@ -1110,9 +1257,9 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="11">
         <v>0</v>
       </c>
       <c r="C5" s="12"/>
@@ -1125,9 +1272,9 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="16"/>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="11">
         <v>0</v>
       </c>
       <c r="C6" s="12"/>
@@ -1140,9 +1287,9 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="11">
         <v>0</v>
       </c>
       <c r="C7" s="12"/>
@@ -1155,9 +1302,9 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="16"/>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="11">
         <v>0</v>
       </c>
       <c r="C8" s="12"/>
@@ -1170,9 +1317,9 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="16"/>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="11">
         <v>0</v>
       </c>
       <c r="C9" s="12"/>
@@ -1185,9 +1332,9 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="11">
         <v>0</v>
       </c>
       <c r="C10" s="12"/>
@@ -1200,9 +1347,9 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="11">
         <v>0</v>
       </c>
       <c r="C11" s="12"/>
@@ -1215,9 +1362,9 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="11">
         <v>0</v>
       </c>
       <c r="C12" s="17"/>
@@ -1230,9 +1377,9 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="11">
         <v>0</v>
       </c>
       <c r="C13" s="17"/>
@@ -1245,9 +1392,9 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="11">
         <v>0</v>
       </c>
       <c r="C14" s="17"/>
@@ -1260,9 +1407,9 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="11">
         <v>0</v>
       </c>
       <c r="C15" s="17"/>
@@ -1275,9 +1422,9 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="11">
         <v>0</v>
       </c>
       <c r="C16" s="17"/>
@@ -1290,9 +1437,9 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="11">
         <v>0</v>
       </c>
       <c r="C17" s="17"/>
@@ -1305,9 +1452,9 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A18" s="16"/>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="11">
         <v>0</v>
       </c>
       <c r="C18" s="17"/>
@@ -1320,9 +1467,9 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A19" s="16"/>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="11">
         <v>0</v>
       </c>
       <c r="C19" s="17"/>
@@ -1335,9 +1482,9 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="11">
         <v>0</v>
       </c>
       <c r="C20" s="17"/>
@@ -1350,9 +1497,9 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A21" s="16"/>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="11">
         <v>0</v>
       </c>
       <c r="C21" s="17"/>
@@ -1365,9 +1512,9 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A22" s="16"/>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="11">
         <v>0</v>
       </c>
       <c r="C22" s="17"/>
@@ -1380,9 +1527,9 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A23" s="16"/>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="11">
         <v>0</v>
       </c>
       <c r="C23" s="17"/>
@@ -1395,9 +1542,9 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="11">
         <v>0</v>
       </c>
       <c r="C24" s="17"/>
@@ -1410,9 +1557,9 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="11">
         <v>0</v>
       </c>
       <c r="C25" s="17"/>
@@ -1425,9 +1572,9 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="11">
         <v>0</v>
       </c>
       <c r="C26" s="17"/>
@@ -1440,9 +1587,9 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="11">
         <v>0</v>
       </c>
       <c r="C27" s="17"/>
@@ -1455,9 +1602,9 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="11">
         <v>0</v>
       </c>
       <c r="C28" s="17"/>
@@ -1470,9 +1617,9 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="11">
         <v>0</v>
       </c>
       <c r="C29" s="17"/>
@@ -1485,9 +1632,9 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="11">
         <v>0</v>
       </c>
       <c r="C30" s="17"/>
@@ -1500,9 +1647,9 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="11">
         <v>0</v>
       </c>
       <c r="C31" s="17"/>
@@ -1515,9 +1662,9 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="11">
         <v>0</v>
       </c>
       <c r="C32" s="17"/>
@@ -1530,9 +1677,9 @@
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="11">
         <v>0</v>
       </c>
       <c r="C33" s="17"/>
@@ -1545,9 +1692,9 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="11">
         <v>0</v>
       </c>
       <c r="C34" s="17"/>
@@ -1560,9 +1707,9 @@
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="11">
         <v>0</v>
       </c>
       <c r="C35" s="17"/>
@@ -1575,9 +1722,9 @@
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A36" s="16"/>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="11">
         <v>0</v>
       </c>
       <c r="C36" s="17"/>
@@ -1590,9 +1737,9 @@
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A37" s="16"/>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="11">
         <v>0</v>
       </c>
       <c r="C37" s="17"/>
@@ -1605,9 +1752,9 @@
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="11">
         <v>0</v>
       </c>
       <c r="C38" s="17"/>
@@ -1620,9 +1767,9 @@
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="11">
         <v>0</v>
       </c>
       <c r="C39" s="17"/>
@@ -1635,9 +1782,9 @@
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
-      <c r="B40" s="11" t="n">
+      <c r="B40" s="11">
         <v>0</v>
       </c>
       <c r="C40" s="17"/>
@@ -1650,9 +1797,9 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="11">
         <v>0</v>
       </c>
       <c r="C41" s="17"/>
@@ -1665,9 +1812,9 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="11">
         <v>0</v>
       </c>
       <c r="C42" s="17"/>
@@ -1680,9 +1827,9 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="11">
         <v>0</v>
       </c>
       <c r="C43" s="17"/>
@@ -1695,9 +1842,9 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A44" s="16"/>
-      <c r="B44" s="11" t="n">
+      <c r="B44" s="11">
         <v>0</v>
       </c>
       <c r="C44" s="17"/>
@@ -1710,9 +1857,9 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A45" s="16"/>
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="11">
         <v>0</v>
       </c>
       <c r="C45" s="17"/>
@@ -1725,9 +1872,9 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A46" s="16"/>
-      <c r="B46" s="11" t="n">
+      <c r="B46" s="11">
         <v>0</v>
       </c>
       <c r="C46" s="17"/>
@@ -1740,9 +1887,9 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
-      <c r="B47" s="11" t="n">
+      <c r="B47" s="11">
         <v>0</v>
       </c>
       <c r="C47" s="17"/>
@@ -1755,9 +1902,9 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A48" s="16"/>
-      <c r="B48" s="11" t="n">
+      <c r="B48" s="11">
         <v>0</v>
       </c>
       <c r="C48" s="17"/>
@@ -1770,9 +1917,9 @@
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
-      <c r="B49" s="11" t="n">
+      <c r="B49" s="11">
         <v>0</v>
       </c>
       <c r="C49" s="17"/>
@@ -1785,9 +1932,9 @@
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
     </row>
-    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
-      <c r="B50" s="11" t="n">
+      <c r="B50" s="11">
         <v>0</v>
       </c>
       <c r="C50" s="17"/>
@@ -1800,9 +1947,9 @@
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
     </row>
-    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A51" s="16"/>
-      <c r="B51" s="11" t="n">
+      <c r="B51" s="11">
         <v>0</v>
       </c>
       <c r="C51" s="17"/>
@@ -1815,9 +1962,9 @@
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
-      <c r="B52" s="11" t="n">
+      <c r="B52" s="11">
         <v>0</v>
       </c>
       <c r="C52" s="17"/>
@@ -1830,9 +1977,9 @@
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A53" s="16"/>
-      <c r="B53" s="11" t="n">
+      <c r="B53" s="11">
         <v>0</v>
       </c>
       <c r="C53" s="17"/>
@@ -1845,9 +1992,9 @@
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A54" s="16"/>
-      <c r="B54" s="11" t="n">
+      <c r="B54" s="11">
         <v>0</v>
       </c>
       <c r="C54" s="17"/>
@@ -1860,9 +2007,9 @@
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A55" s="16"/>
-      <c r="B55" s="11" t="n">
+      <c r="B55" s="11">
         <v>0</v>
       </c>
       <c r="C55" s="17"/>
@@ -1875,9 +2022,9 @@
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A56" s="16"/>
-      <c r="B56" s="11" t="n">
+      <c r="B56" s="11">
         <v>0</v>
       </c>
       <c r="C56" s="17"/>
@@ -1890,9 +2037,9 @@
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
     </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A57" s="16"/>
-      <c r="B57" s="11" t="n">
+      <c r="B57" s="11">
         <v>0</v>
       </c>
       <c r="C57" s="17"/>
@@ -1905,9 +2052,9 @@
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
     </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A58" s="16"/>
-      <c r="B58" s="11" t="n">
+      <c r="B58" s="11">
         <v>0</v>
       </c>
       <c r="C58" s="17"/>
@@ -1920,9 +2067,9 @@
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A59" s="16"/>
-      <c r="B59" s="11" t="n">
+      <c r="B59" s="11">
         <v>0</v>
       </c>
       <c r="C59" s="17"/>
@@ -1935,9 +2082,9 @@
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
     </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A60" s="16"/>
-      <c r="B60" s="11" t="n">
+      <c r="B60" s="11">
         <v>0</v>
       </c>
       <c r="C60" s="17"/>
@@ -1950,9 +2097,9 @@
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
-      <c r="B61" s="11" t="n">
+      <c r="B61" s="11">
         <v>0</v>
       </c>
       <c r="C61" s="17"/>
@@ -1965,9 +2112,9 @@
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A62" s="16"/>
-      <c r="B62" s="11" t="n">
+      <c r="B62" s="11">
         <v>0</v>
       </c>
       <c r="C62" s="17"/>
@@ -1980,9 +2127,9 @@
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A63" s="16"/>
-      <c r="B63" s="11" t="n">
+      <c r="B63" s="11">
         <v>0</v>
       </c>
       <c r="C63" s="17"/>
@@ -1995,9 +2142,9 @@
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
     </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A64" s="16"/>
-      <c r="B64" s="11" t="n">
+      <c r="B64" s="11">
         <v>0</v>
       </c>
       <c r="C64" s="17"/>
@@ -2010,9 +2157,9 @@
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
     </row>
-    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A65" s="16"/>
-      <c r="B65" s="11" t="n">
+      <c r="B65" s="11">
         <v>0</v>
       </c>
       <c r="C65" s="17"/>
@@ -2025,9 +2172,9 @@
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
     </row>
-    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A66" s="16"/>
-      <c r="B66" s="11" t="n">
+      <c r="B66" s="11">
         <v>0</v>
       </c>
       <c r="C66" s="17"/>
@@ -2040,9 +2187,9 @@
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
     </row>
-    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A67" s="16"/>
-      <c r="B67" s="11" t="n">
+      <c r="B67" s="11">
         <v>0</v>
       </c>
       <c r="C67" s="17"/>
@@ -2055,9 +2202,9 @@
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
     </row>
-    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A68" s="16"/>
-      <c r="B68" s="11" t="n">
+      <c r="B68" s="11">
         <v>0</v>
       </c>
       <c r="C68" s="17"/>
@@ -2070,9 +2217,9 @@
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
     </row>
-    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A69" s="16"/>
-      <c r="B69" s="11" t="n">
+      <c r="B69" s="11">
         <v>0</v>
       </c>
       <c r="C69" s="17"/>
@@ -2085,9 +2232,9 @@
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
     </row>
-    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A70" s="16"/>
-      <c r="B70" s="11" t="n">
+      <c r="B70" s="11">
         <v>0</v>
       </c>
       <c r="C70" s="17"/>
@@ -2100,9 +2247,9 @@
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
     </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A71" s="16"/>
-      <c r="B71" s="11" t="n">
+      <c r="B71" s="11">
         <v>0</v>
       </c>
       <c r="C71" s="17"/>
@@ -2115,9 +2262,9 @@
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A72" s="16"/>
-      <c r="B72" s="11" t="n">
+      <c r="B72" s="11">
         <v>0</v>
       </c>
       <c r="C72" s="17"/>
@@ -2130,9 +2277,9 @@
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
     </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A73" s="16"/>
-      <c r="B73" s="11" t="n">
+      <c r="B73" s="11">
         <v>0</v>
       </c>
       <c r="C73" s="17"/>
@@ -2145,9 +2292,9 @@
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
     </row>
-    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A74" s="16"/>
-      <c r="B74" s="11" t="n">
+      <c r="B74" s="11">
         <v>0</v>
       </c>
       <c r="C74" s="17"/>
@@ -2160,9 +2307,9 @@
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
     </row>
-    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A75" s="16"/>
-      <c r="B75" s="11" t="n">
+      <c r="B75" s="11">
         <v>0</v>
       </c>
       <c r="C75" s="17"/>
@@ -2175,9 +2322,9 @@
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
     </row>
-    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A76" s="16"/>
-      <c r="B76" s="11" t="n">
+      <c r="B76" s="11">
         <v>0</v>
       </c>
       <c r="C76" s="17"/>
@@ -2190,9 +2337,9 @@
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
     </row>
-    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A77" s="16"/>
-      <c r="B77" s="11" t="n">
+      <c r="B77" s="11">
         <v>0</v>
       </c>
       <c r="C77" s="17"/>
@@ -2205,9 +2352,9 @@
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
     </row>
-    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A78" s="16"/>
-      <c r="B78" s="11" t="n">
+      <c r="B78" s="11">
         <v>0</v>
       </c>
       <c r="C78" s="17"/>
@@ -2220,9 +2367,9 @@
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
     </row>
-    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A79" s="16"/>
-      <c r="B79" s="11" t="n">
+      <c r="B79" s="11">
         <v>0</v>
       </c>
       <c r="C79" s="17"/>
@@ -2235,9 +2382,9 @@
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
     </row>
-    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A80" s="16"/>
-      <c r="B80" s="11" t="n">
+      <c r="B80" s="11">
         <v>0</v>
       </c>
       <c r="C80" s="17"/>
@@ -2250,9 +2397,9 @@
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
     </row>
-    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A81" s="16"/>
-      <c r="B81" s="11" t="n">
+      <c r="B81" s="11">
         <v>0</v>
       </c>
       <c r="C81" s="17"/>
@@ -2265,9 +2412,9 @@
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
     </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A82" s="16"/>
-      <c r="B82" s="11" t="n">
+      <c r="B82" s="11">
         <v>0</v>
       </c>
       <c r="C82" s="17"/>
@@ -2280,9 +2427,9 @@
       <c r="J82" s="14"/>
       <c r="K82" s="14"/>
     </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A83" s="16"/>
-      <c r="B83" s="11" t="n">
+      <c r="B83" s="11">
         <v>0</v>
       </c>
       <c r="C83" s="17"/>
@@ -2295,9 +2442,9 @@
       <c r="J83" s="14"/>
       <c r="K83" s="14"/>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A84" s="16"/>
-      <c r="B84" s="11" t="n">
+      <c r="B84" s="11">
         <v>0</v>
       </c>
       <c r="C84" s="17"/>
@@ -2310,9 +2457,9 @@
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
     </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A85" s="16"/>
-      <c r="B85" s="11" t="n">
+      <c r="B85" s="11">
         <v>0</v>
       </c>
       <c r="C85" s="17"/>
@@ -2325,9 +2472,9 @@
       <c r="J85" s="14"/>
       <c r="K85" s="14"/>
     </row>
-    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A86" s="16"/>
-      <c r="B86" s="11" t="n">
+      <c r="B86" s="11">
         <v>0</v>
       </c>
       <c r="C86" s="17"/>
@@ -2340,9 +2487,9 @@
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
     </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A87" s="16"/>
-      <c r="B87" s="11" t="n">
+      <c r="B87" s="11">
         <v>0</v>
       </c>
       <c r="C87" s="17"/>
@@ -2355,9 +2502,9 @@
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
     </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A88" s="16"/>
-      <c r="B88" s="11" t="n">
+      <c r="B88" s="11">
         <v>0</v>
       </c>
       <c r="C88" s="17"/>
@@ -2370,9 +2517,9 @@
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
     </row>
-    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A89" s="16"/>
-      <c r="B89" s="11" t="n">
+      <c r="B89" s="11">
         <v>0</v>
       </c>
       <c r="C89" s="17"/>
@@ -2385,9 +2532,9 @@
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
     </row>
-    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A90" s="16"/>
-      <c r="B90" s="11" t="n">
+      <c r="B90" s="11">
         <v>0</v>
       </c>
       <c r="C90" s="17"/>
@@ -2400,9 +2547,9 @@
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
     </row>
-    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A91" s="16"/>
-      <c r="B91" s="11" t="n">
+      <c r="B91" s="11">
         <v>0</v>
       </c>
       <c r="C91" s="17"/>
@@ -2415,9 +2562,9 @@
       <c r="J91" s="14"/>
       <c r="K91" s="14"/>
     </row>
-    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A92" s="16"/>
-      <c r="B92" s="11" t="n">
+      <c r="B92" s="11">
         <v>0</v>
       </c>
       <c r="C92" s="17"/>
@@ -2430,9 +2577,9 @@
       <c r="J92" s="14"/>
       <c r="K92" s="14"/>
     </row>
-    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A93" s="16"/>
-      <c r="B93" s="11" t="n">
+      <c r="B93" s="11">
         <v>0</v>
       </c>
       <c r="C93" s="17"/>
@@ -2445,9 +2592,9 @@
       <c r="J93" s="14"/>
       <c r="K93" s="14"/>
     </row>
-    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A94" s="16"/>
-      <c r="B94" s="11" t="n">
+      <c r="B94" s="11">
         <v>0</v>
       </c>
       <c r="C94" s="17"/>
@@ -2460,9 +2607,9 @@
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
     </row>
-    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A95" s="16"/>
-      <c r="B95" s="11" t="n">
+      <c r="B95" s="11">
         <v>0</v>
       </c>
       <c r="C95" s="17"/>
@@ -2475,9 +2622,9 @@
       <c r="J95" s="14"/>
       <c r="K95" s="14"/>
     </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A96" s="16"/>
-      <c r="B96" s="11" t="n">
+      <c r="B96" s="11">
         <v>0</v>
       </c>
       <c r="C96" s="17"/>
@@ -2490,9 +2637,9 @@
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
     </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A97" s="16"/>
-      <c r="B97" s="11" t="n">
+      <c r="B97" s="11">
         <v>0</v>
       </c>
       <c r="C97" s="17"/>
@@ -2505,9 +2652,9 @@
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
     </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A98" s="16"/>
-      <c r="B98" s="11" t="n">
+      <c r="B98" s="11">
         <v>0</v>
       </c>
       <c r="C98" s="17"/>
@@ -2520,9 +2667,9 @@
       <c r="J98" s="14"/>
       <c r="K98" s="14"/>
     </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A99" s="16"/>
-      <c r="B99" s="11" t="n">
+      <c r="B99" s="11">
         <v>0</v>
       </c>
       <c r="C99" s="17"/>
@@ -2535,9 +2682,9 @@
       <c r="J99" s="14"/>
       <c r="K99" s="14"/>
     </row>
-    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A100" s="16"/>
-      <c r="B100" s="11" t="n">
+      <c r="B100" s="11">
         <v>0</v>
       </c>
       <c r="C100" s="17"/>
@@ -2550,9 +2697,9 @@
       <c r="J100" s="14"/>
       <c r="K100" s="14"/>
     </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A101" s="16"/>
-      <c r="B101" s="11" t="n">
+      <c r="B101" s="11">
         <v>0</v>
       </c>
       <c r="C101" s="17"/>
@@ -2565,9 +2712,9 @@
       <c r="J101" s="14"/>
       <c r="K101" s="14"/>
     </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A102" s="16"/>
-      <c r="B102" s="11" t="n">
+      <c r="B102" s="11">
         <v>0</v>
       </c>
       <c r="C102" s="17"/>
@@ -2580,9 +2727,9 @@
       <c r="J102" s="14"/>
       <c r="K102" s="14"/>
     </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A103" s="16"/>
-      <c r="B103" s="11" t="n">
+      <c r="B103" s="11">
         <v>0</v>
       </c>
       <c r="C103" s="17"/>
@@ -2595,9 +2742,9 @@
       <c r="J103" s="14"/>
       <c r="K103" s="14"/>
     </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A104" s="16"/>
-      <c r="B104" s="11" t="n">
+      <c r="B104" s="11">
         <v>0</v>
       </c>
       <c r="C104" s="17"/>
@@ -2610,9 +2757,9 @@
       <c r="J104" s="14"/>
       <c r="K104" s="14"/>
     </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A105" s="16"/>
-      <c r="B105" s="11" t="n">
+      <c r="B105" s="11">
         <v>0</v>
       </c>
       <c r="C105" s="17"/>
@@ -2625,9 +2772,9 @@
       <c r="J105" s="14"/>
       <c r="K105" s="14"/>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A106" s="16"/>
-      <c r="B106" s="11" t="n">
+      <c r="B106" s="11">
         <v>0</v>
       </c>
       <c r="C106" s="17"/>
@@ -2640,9 +2787,9 @@
       <c r="J106" s="14"/>
       <c r="K106" s="14"/>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A107" s="16"/>
-      <c r="B107" s="11" t="n">
+      <c r="B107" s="11">
         <v>0</v>
       </c>
       <c r="C107" s="17"/>
@@ -2655,9 +2802,9 @@
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
     </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A108" s="16"/>
-      <c r="B108" s="11" t="n">
+      <c r="B108" s="11">
         <v>0</v>
       </c>
       <c r="C108" s="17"/>
@@ -2670,9 +2817,9 @@
       <c r="J108" s="14"/>
       <c r="K108" s="14"/>
     </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A109" s="16"/>
-      <c r="B109" s="11" t="n">
+      <c r="B109" s="11">
         <v>0</v>
       </c>
       <c r="C109" s="17"/>
@@ -2685,9 +2832,9 @@
       <c r="J109" s="14"/>
       <c r="K109" s="14"/>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A110" s="16"/>
-      <c r="B110" s="11" t="n">
+      <c r="B110" s="11">
         <v>0</v>
       </c>
       <c r="C110" s="17"/>
@@ -2700,9 +2847,9 @@
       <c r="J110" s="14"/>
       <c r="K110" s="14"/>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A111" s="16"/>
-      <c r="B111" s="11" t="n">
+      <c r="B111" s="11">
         <v>0</v>
       </c>
       <c r="C111" s="17"/>
@@ -2715,9 +2862,9 @@
       <c r="J111" s="14"/>
       <c r="K111" s="14"/>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A112" s="16"/>
-      <c r="B112" s="11" t="n">
+      <c r="B112" s="11">
         <v>0</v>
       </c>
       <c r="C112" s="17"/>
@@ -2730,9 +2877,9 @@
       <c r="J112" s="14"/>
       <c r="K112" s="14"/>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A113" s="16"/>
-      <c r="B113" s="11" t="n">
+      <c r="B113" s="11">
         <v>0</v>
       </c>
       <c r="C113" s="17"/>
@@ -2745,9 +2892,9 @@
       <c r="J113" s="14"/>
       <c r="K113" s="14"/>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A114" s="16"/>
-      <c r="B114" s="11" t="n">
+      <c r="B114" s="11">
         <v>0</v>
       </c>
       <c r="C114" s="17"/>
@@ -2760,9 +2907,9 @@
       <c r="J114" s="14"/>
       <c r="K114" s="14"/>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A115" s="16"/>
-      <c r="B115" s="11" t="n">
+      <c r="B115" s="11">
         <v>0</v>
       </c>
       <c r="C115" s="17"/>
@@ -2775,9 +2922,9 @@
       <c r="J115" s="14"/>
       <c r="K115" s="14"/>
     </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A116" s="16"/>
-      <c r="B116" s="11" t="n">
+      <c r="B116" s="11">
         <v>0</v>
       </c>
       <c r="C116" s="17"/>
@@ -2790,9 +2937,9 @@
       <c r="J116" s="14"/>
       <c r="K116" s="14"/>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A117" s="16"/>
-      <c r="B117" s="11" t="n">
+      <c r="B117" s="11">
         <v>0</v>
       </c>
       <c r="C117" s="17"/>
@@ -2805,9 +2952,9 @@
       <c r="J117" s="14"/>
       <c r="K117" s="14"/>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A118" s="16"/>
-      <c r="B118" s="11" t="n">
+      <c r="B118" s="11">
         <v>0</v>
       </c>
       <c r="C118" s="17"/>
@@ -2820,9 +2967,9 @@
       <c r="J118" s="14"/>
       <c r="K118" s="14"/>
     </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A119" s="16"/>
-      <c r="B119" s="11" t="n">
+      <c r="B119" s="11">
         <v>0</v>
       </c>
       <c r="C119" s="17"/>
@@ -2835,9 +2982,9 @@
       <c r="J119" s="14"/>
       <c r="K119" s="14"/>
     </row>
-    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A120" s="16"/>
-      <c r="B120" s="11" t="n">
+      <c r="B120" s="11">
         <v>0</v>
       </c>
       <c r="C120" s="17"/>
@@ -2850,9 +2997,9 @@
       <c r="J120" s="14"/>
       <c r="K120" s="14"/>
     </row>
-    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A121" s="16"/>
-      <c r="B121" s="11" t="n">
+      <c r="B121" s="11">
         <v>0</v>
       </c>
       <c r="C121" s="17"/>
@@ -2865,9 +3012,9 @@
       <c r="J121" s="14"/>
       <c r="K121" s="14"/>
     </row>
-    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A122" s="16"/>
-      <c r="B122" s="11" t="n">
+      <c r="B122" s="11">
         <v>0</v>
       </c>
       <c r="C122" s="17"/>
@@ -2880,9 +3027,9 @@
       <c r="J122" s="14"/>
       <c r="K122" s="14"/>
     </row>
-    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A123" s="16"/>
-      <c r="B123" s="11" t="n">
+      <c r="B123" s="11">
         <v>0</v>
       </c>
       <c r="C123" s="17"/>
@@ -2895,9 +3042,9 @@
       <c r="J123" s="14"/>
       <c r="K123" s="14"/>
     </row>
-    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A124" s="16"/>
-      <c r="B124" s="11" t="n">
+      <c r="B124" s="11">
         <v>0</v>
       </c>
       <c r="C124" s="17"/>
@@ -2910,9 +3057,9 @@
       <c r="J124" s="14"/>
       <c r="K124" s="14"/>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A125" s="16"/>
-      <c r="B125" s="11" t="n">
+      <c r="B125" s="11">
         <v>0</v>
       </c>
       <c r="C125" s="17"/>
@@ -2925,9 +3072,9 @@
       <c r="J125" s="14"/>
       <c r="K125" s="14"/>
     </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A126" s="16"/>
-      <c r="B126" s="11" t="n">
+      <c r="B126" s="11">
         <v>0</v>
       </c>
       <c r="C126" s="17"/>
@@ -2940,9 +3087,9 @@
       <c r="J126" s="14"/>
       <c r="K126" s="14"/>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A127" s="16"/>
-      <c r="B127" s="11" t="n">
+      <c r="B127" s="11">
         <v>0</v>
       </c>
       <c r="C127" s="17"/>
@@ -2955,9 +3102,9 @@
       <c r="J127" s="14"/>
       <c r="K127" s="14"/>
     </row>
-    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A128" s="16"/>
-      <c r="B128" s="11" t="n">
+      <c r="B128" s="11">
         <v>0</v>
       </c>
       <c r="C128" s="17"/>
@@ -2970,9 +3117,9 @@
       <c r="J128" s="14"/>
       <c r="K128" s="14"/>
     </row>
-    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A129" s="16"/>
-      <c r="B129" s="11" t="n">
+      <c r="B129" s="11">
         <v>0</v>
       </c>
       <c r="C129" s="17"/>
@@ -2986,72 +3133,87 @@
       <c r="K129" s="14"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2:B129" type="list">
+  <phoneticPr fontId="6"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="If don't use CC set cell value empty" promptTitle="0-127" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:I129" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="If don't use MIDI Note on, set cell value empty." promptTitle="0-127" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G129" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="If don't use Program Change, set cell value empty." promptTitle="0-127" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2:J129" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="If cell value is empty, MSB will be set 0.&#10;&#10;By my research, Maybe Cubase will not recognize MSB." promptTitle="0-127" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K2:K129" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D129" type="list">
-      <formula1>'DO NOT MODIFY!'!$B$2:$B$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E129" type="list">
-      <formula1>'DO NOT MODIFY!'!$C$2:$C$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="between" prompt="Choose from Drop-down list or imput number directly(0-127)&#10;&#10;If don’t use MIDI Note, set Cell value empty." promptTitle="MIDI Note" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F129" type="list">
-      <formula1>'DO NOT MODIFY!'!$A$2:$A$258</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>D2:D129</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>E2:E129</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>F2:F129</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF000000"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C258"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.84"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="1025" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -3062,1441 +3224,1437 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="22" t="n">
+      <c r="C3" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="25"/>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="25"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="25"/>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="25"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="25"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="25"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="25"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="25"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="25"/>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="25"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="25"/>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="25"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="25"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="25"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="25"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="25"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="25"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="25"/>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="25"/>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="25"/>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="25"/>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A27" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="25"/>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="25"/>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A29" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="25"/>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="25"/>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="25"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="25"/>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="25"/>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="25"/>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A35" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="25"/>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="25"/>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="25"/>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A38" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="25"/>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A39" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="25"/>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A40" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="25"/>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A41" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="25"/>
     </row>
-    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="25"/>
     </row>
-    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A43" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="25"/>
     </row>
-    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B44" s="25"/>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A45" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B45" s="25"/>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A46" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B46" s="25"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A47" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="25"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A48" s="23" t="s">
         <v>61</v>
       </c>
       <c r="B48" s="25"/>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A49" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B49" s="25"/>
     </row>
-    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A50" s="23" t="s">
         <v>63</v>
       </c>
       <c r="B50" s="25"/>
     </row>
-    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A51" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B51" s="25"/>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A52" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B52" s="25"/>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A53" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B53" s="25"/>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A54" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B54" s="25"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A55" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B55" s="25"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A56" s="23" t="s">
         <v>69</v>
       </c>
       <c r="B56" s="25"/>
     </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A57" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B57" s="25"/>
     </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A58" s="23" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="25"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A59" s="23" t="s">
         <v>72</v>
       </c>
       <c r="B59" s="25"/>
     </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A60" s="23" t="s">
         <v>73</v>
       </c>
       <c r="B60" s="25"/>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A61" s="23" t="s">
         <v>74</v>
       </c>
       <c r="B61" s="25"/>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A62" s="23" t="s">
         <v>75</v>
       </c>
       <c r="B62" s="25"/>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A63" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B63" s="25"/>
     </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A64" s="23" t="s">
         <v>77</v>
       </c>
       <c r="B64" s="25"/>
     </row>
-    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A65" s="23" t="s">
         <v>78</v>
       </c>
       <c r="B65" s="25"/>
     </row>
-    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A66" s="23" t="s">
         <v>79</v>
       </c>
       <c r="B66" s="25"/>
     </row>
-    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A67" s="23" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="25"/>
     </row>
-    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A68" s="23" t="s">
         <v>81</v>
       </c>
       <c r="B68" s="25"/>
     </row>
-    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A69" s="23" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="25"/>
     </row>
-    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A70" s="23" t="s">
         <v>83</v>
       </c>
       <c r="B70" s="25"/>
     </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A71" s="23" t="s">
         <v>84</v>
       </c>
       <c r="B71" s="25"/>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A72" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B72" s="25"/>
     </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A73" s="23" t="s">
         <v>86</v>
       </c>
       <c r="B73" s="25"/>
     </row>
-    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A74" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B74" s="25"/>
     </row>
-    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A75" s="23" t="s">
         <v>88</v>
       </c>
       <c r="B75" s="25"/>
     </row>
-    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A76" s="23" t="s">
         <v>89</v>
       </c>
       <c r="B76" s="25"/>
     </row>
-    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A77" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B77" s="25"/>
     </row>
-    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A78" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B78" s="25"/>
     </row>
-    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A79" s="23" t="s">
         <v>92</v>
       </c>
       <c r="B79" s="25"/>
     </row>
-    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A80" s="23" t="s">
         <v>93</v>
       </c>
       <c r="B80" s="25"/>
     </row>
-    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A81" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B81" s="25"/>
     </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A82" s="23" t="s">
         <v>95</v>
       </c>
       <c r="B82" s="25"/>
     </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A83" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B83" s="25"/>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A84" s="23" t="s">
         <v>97</v>
       </c>
       <c r="B84" s="25"/>
     </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A85" s="23" t="s">
         <v>98</v>
       </c>
       <c r="B85" s="25"/>
     </row>
-    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A86" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B86" s="25"/>
     </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A87" s="23" t="s">
         <v>100</v>
       </c>
       <c r="B87" s="25"/>
     </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A88" s="23" t="s">
         <v>101</v>
       </c>
       <c r="B88" s="25"/>
     </row>
-    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A89" s="23" t="s">
         <v>102</v>
       </c>
       <c r="B89" s="25"/>
     </row>
-    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A90" s="23" t="s">
         <v>103</v>
       </c>
       <c r="B90" s="25"/>
     </row>
-    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A91" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B91" s="25"/>
     </row>
-    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A92" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B92" s="25"/>
     </row>
-    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A93" s="23" t="s">
         <v>106</v>
       </c>
       <c r="B93" s="25"/>
     </row>
-    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A94" s="23" t="s">
         <v>107</v>
       </c>
       <c r="B94" s="25"/>
     </row>
-    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A95" s="23" t="s">
         <v>108</v>
       </c>
       <c r="B95" s="25"/>
     </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A96" s="23" t="s">
         <v>109</v>
       </c>
       <c r="B96" s="25"/>
     </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A97" s="23" t="s">
         <v>110</v>
       </c>
       <c r="B97" s="25"/>
     </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A98" s="23" t="s">
         <v>111</v>
       </c>
       <c r="B98" s="25"/>
     </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A99" s="23" t="s">
         <v>112</v>
       </c>
       <c r="B99" s="25"/>
     </row>
-    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A100" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B100" s="25"/>
     </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A101" s="23" t="s">
         <v>114</v>
       </c>
       <c r="B101" s="25"/>
     </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A102" s="23" t="s">
         <v>115</v>
       </c>
       <c r="B102" s="25"/>
     </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A103" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B103" s="25"/>
     </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A104" s="23" t="s">
         <v>117</v>
       </c>
       <c r="B104" s="25"/>
     </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A105" s="23" t="s">
         <v>118</v>
       </c>
       <c r="B105" s="25"/>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A106" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B106" s="25"/>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A107" s="23" t="s">
         <v>120</v>
       </c>
       <c r="B107" s="25"/>
     </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A108" s="23" t="s">
         <v>121</v>
       </c>
       <c r="B108" s="25"/>
     </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A109" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B109" s="25"/>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A110" s="23" t="s">
         <v>123</v>
       </c>
       <c r="B110" s="25"/>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A111" s="23" t="s">
         <v>124</v>
       </c>
       <c r="B111" s="25"/>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A112" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B112" s="25"/>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A113" s="23" t="s">
         <v>126</v>
       </c>
       <c r="B113" s="25"/>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A114" s="23" t="s">
         <v>127</v>
       </c>
       <c r="B114" s="25"/>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A115" s="23" t="s">
         <v>128</v>
       </c>
       <c r="B115" s="25"/>
     </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A116" s="23" t="s">
         <v>129</v>
       </c>
       <c r="B116" s="25"/>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A117" s="23" t="s">
         <v>130</v>
       </c>
       <c r="B117" s="25"/>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A118" s="23" t="s">
         <v>131</v>
       </c>
       <c r="B118" s="25"/>
     </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A119" s="23" t="s">
         <v>132</v>
       </c>
       <c r="B119" s="25"/>
     </row>
-    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A120" s="23" t="s">
         <v>133</v>
       </c>
       <c r="B120" s="25"/>
     </row>
-    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A121" s="23" t="s">
         <v>134</v>
       </c>
       <c r="B121" s="25"/>
     </row>
-    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A122" s="23" t="s">
         <v>135</v>
       </c>
       <c r="B122" s="25"/>
     </row>
-    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A123" s="23" t="s">
         <v>136</v>
       </c>
       <c r="B123" s="25"/>
     </row>
-    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A124" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B124" s="25"/>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A125" s="23" t="s">
         <v>138</v>
       </c>
       <c r="B125" s="25"/>
     </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A126" s="23" t="s">
         <v>139</v>
       </c>
       <c r="B126" s="25"/>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A127" s="23" t="s">
         <v>140</v>
       </c>
       <c r="B127" s="25"/>
     </row>
-    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A128" s="23" t="s">
         <v>141</v>
       </c>
       <c r="B128" s="25"/>
     </row>
-    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A129" s="23" t="s">
         <v>142</v>
       </c>
       <c r="B129" s="25"/>
     </row>
-    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A130" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="16" t="n">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="16" t="n">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="16" t="n">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="16" t="n">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="16" t="n">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="16" t="n">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="16" t="n">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="16" t="n">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="16" t="n">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="16" t="n">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="16" t="n">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="16">
         <v>11</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="16" t="n">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="16" t="n">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="16">
         <v>13</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="16" t="n">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="16">
         <v>14</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="16" t="n">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="16" t="n">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="16">
         <v>16</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="16" t="n">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="16">
         <v>17</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="16" t="n">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="16">
         <v>18</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="16" t="n">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="16" t="n">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="16">
         <v>20</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="16" t="n">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="16">
         <v>21</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="16" t="n">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="16" t="n">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="16">
         <v>23</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="16" t="n">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="16" t="n">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="16">
         <v>25</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="16" t="n">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="16" t="n">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="16" t="n">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="16">
         <v>28</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="16" t="n">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="16">
         <v>29</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="16" t="n">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="16">
         <v>30</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="16" t="n">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="16">
         <v>31</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="16" t="n">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="16">
         <v>32</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="16" t="n">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="16">
         <v>33</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="16" t="n">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="16">
         <v>34</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="16" t="n">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="16" t="n">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="16">
         <v>36</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="16" t="n">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="16">
         <v>37</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="16" t="n">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="16">
         <v>38</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="16" t="n">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="16">
         <v>39</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="16" t="n">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="16">
         <v>40</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="16" t="n">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="16">
         <v>41</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="16" t="n">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="16" t="n">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="16">
         <v>43</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="16" t="n">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="16">
         <v>44</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="16" t="n">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="16" t="n">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="16" t="n">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="16" t="n">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="16" t="n">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" s="16">
         <v>49</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="16" t="n">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="16" t="n">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="16" t="n">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" s="16">
         <v>52</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="16" t="n">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" s="16">
         <v>53</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="16" t="n">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" s="16">
         <v>54</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="16" t="n">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" s="16">
         <v>55</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="16" t="n">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" s="16">
         <v>56</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="16" t="n">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" s="16">
         <v>57</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="16" t="n">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" s="16">
         <v>58</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="16" t="n">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" s="16">
         <v>59</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="16" t="n">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" s="16">
         <v>60</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="16" t="n">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" s="16">
         <v>61</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="16" t="n">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" s="16">
         <v>62</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="16" t="n">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" s="16">
         <v>63</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="16" t="n">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" s="16">
         <v>64</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="16" t="n">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" s="16">
         <v>65</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="16" t="n">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" s="16">
         <v>66</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="16" t="n">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" s="16">
         <v>67</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="16" t="n">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" s="16">
         <v>68</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="16" t="n">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" s="16">
         <v>69</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="16" t="n">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" s="16">
         <v>70</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="16" t="n">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" s="16">
         <v>71</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="16" t="n">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="16" t="n">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" s="16">
         <v>73</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="16" t="n">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" s="16">
         <v>74</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="16" t="n">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206" s="16">
         <v>75</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="16" t="n">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" s="16">
         <v>76</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="16" t="n">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" s="16">
         <v>77</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="16" t="n">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" s="16">
         <v>78</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="16" t="n">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" s="16">
         <v>79</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="16" t="n">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" s="16">
         <v>80</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="16" t="n">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" s="16">
         <v>81</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="16" t="n">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" s="16">
         <v>82</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="16" t="n">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214" s="16">
         <v>83</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="16" t="n">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215" s="16">
         <v>84</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="16" t="n">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216" s="16">
         <v>85</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="16" t="n">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" s="16">
         <v>86</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="16" t="n">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" s="16">
         <v>87</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="16" t="n">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" s="16">
         <v>88</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="16" t="n">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" s="16">
         <v>89</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="16" t="n">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" s="16">
         <v>90</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="16" t="n">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" s="16">
         <v>91</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="16" t="n">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" s="16">
         <v>92</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="16" t="n">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224" s="16">
         <v>93</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="16" t="n">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225" s="16">
         <v>94</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="16" t="n">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" s="16">
         <v>95</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="16" t="n">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" s="16">
         <v>96</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="16" t="n">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228" s="16">
         <v>97</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="16" t="n">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229" s="16">
         <v>98</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="16" t="n">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230" s="16">
         <v>99</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="16" t="n">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="16" t="n">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" s="16">
         <v>101</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="16" t="n">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" s="16">
         <v>102</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="16" t="n">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234" s="16">
         <v>103</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="16" t="n">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A235" s="16">
         <v>104</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="16" t="n">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A236" s="16">
         <v>105</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="16" t="n">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237" s="16">
         <v>106</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="16" t="n">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238" s="16">
         <v>107</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="16" t="n">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A239" s="16">
         <v>108</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="16" t="n">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A240" s="16">
         <v>109</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="16" t="n">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241" s="16">
         <v>110</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="16" t="n">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242" s="16">
         <v>111</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="16" t="n">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" s="16">
         <v>112</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="16" t="n">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" s="16">
         <v>113</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="16" t="n">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" s="16">
         <v>114</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="16" t="n">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246" s="16">
         <v>115</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="16" t="n">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247" s="16">
         <v>116</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="16" t="n">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248" s="16">
         <v>117</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="16" t="n">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" s="16">
         <v>118</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="16" t="n">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250" s="16">
         <v>119</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="16" t="n">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" s="16">
         <v>120</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="16" t="n">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" s="16">
         <v>121</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="16" t="n">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" s="16">
         <v>122</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="16" t="n">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" s="16">
         <v>123</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="16" t="n">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" s="16">
         <v>124</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="16" t="n">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" s="16">
         <v>125</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="16" t="n">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257" s="16">
         <v>126</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="16" t="n">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258" s="16">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="2385" yWindow="3945" windowWidth="24825" windowHeight="15615" tabRatio="500"/>
@@ -11,14 +11,6 @@
     <sheet name="DO NOT MODIFY!" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -29,6 +21,64 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter valid filename. The converter will use as </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>output filename</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve"> and VST </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="148">
   <si>
     <t>Name</t>
   </si>
@@ -480,13 +530,27 @@
   </si>
   <si>
     <t>G8 (127)</t>
+  </si>
+  <si>
+    <t>MIDI Notes(Whole)</t>
+  </si>
+  <si>
+    <t>MIDI Notes(Semi)</t>
+  </si>
+  <si>
+    <t>Example - ProductName - Patchname</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -525,8 +589,23 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,8 +660,20 @@
         <bgColor rgb="FFEBF1DE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FFB7DEE8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -629,6 +720,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +802,30 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -788,13 +916,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1101,12 +1229,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -1121,103 +1249,71 @@
     <col min="1026" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="12" customHeight="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="15">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="15">
-        <v>100</v>
-      </c>
-      <c r="H3" s="15">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15">
-        <v>23</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
       <c r="B4" s="15">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1226,25 +1322,39 @@
       <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="15">
+        <v>100</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <v>23</v>
+      </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="2"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -1257,9 +1367,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1"/>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
+      <c r="B7" s="15"/>
       <c r="C7" s="2"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>
@@ -1272,9 +1380,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1"/>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
+      <c r="B8" s="15"/>
       <c r="C8" s="2"/>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -1287,9 +1393,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="2"/>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -1302,9 +1406,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
+      <c r="B10" s="15"/>
       <c r="C10" s="2"/>
       <c r="D10" s="16"/>
       <c r="E10" s="15"/>
@@ -1317,9 +1419,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
-      <c r="B11" s="15">
-        <v>0</v>
-      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="2"/>
       <c r="D11" s="16"/>
       <c r="E11" s="15"/>
@@ -1332,9 +1432,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1"/>
-      <c r="B12" s="15">
-        <v>0</v>
-      </c>
+      <c r="B12" s="15"/>
       <c r="C12" s="2"/>
       <c r="D12" s="16"/>
       <c r="E12" s="15"/>
@@ -1347,9 +1445,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1"/>
-      <c r="B13" s="15">
-        <v>0</v>
-      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="2"/>
       <c r="D13" s="16"/>
       <c r="E13" s="15"/>
@@ -1362,9 +1458,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1"/>
-      <c r="B14" s="15">
-        <v>0</v>
-      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="2"/>
       <c r="D14" s="16"/>
       <c r="E14" s="15"/>
@@ -1377,9 +1471,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1"/>
-      <c r="B15" s="15">
-        <v>0</v>
-      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="16"/>
       <c r="E15" s="15"/>
@@ -1392,9 +1484,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1"/>
-      <c r="B16" s="15">
-        <v>0</v>
-      </c>
+      <c r="B16" s="15"/>
       <c r="C16" s="2"/>
       <c r="D16" s="16"/>
       <c r="E16" s="15"/>
@@ -1407,9 +1497,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1"/>
-      <c r="B17" s="15">
-        <v>0</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="2"/>
       <c r="D17" s="16"/>
       <c r="E17" s="15"/>
@@ -1422,9 +1510,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1"/>
-      <c r="B18" s="15">
-        <v>0</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="2"/>
       <c r="D18" s="16"/>
       <c r="E18" s="15"/>
@@ -1437,9 +1523,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1"/>
-      <c r="B19" s="15">
-        <v>0</v>
-      </c>
+      <c r="B19" s="15"/>
       <c r="C19" s="2"/>
       <c r="D19" s="16"/>
       <c r="E19" s="15"/>
@@ -1452,9 +1536,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1"/>
-      <c r="B20" s="15">
-        <v>0</v>
-      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="2"/>
       <c r="D20" s="16"/>
       <c r="E20" s="15"/>
@@ -1467,9 +1549,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1"/>
-      <c r="B21" s="15">
-        <v>0</v>
-      </c>
+      <c r="B21" s="15"/>
       <c r="C21" s="2"/>
       <c r="D21" s="16"/>
       <c r="E21" s="15"/>
@@ -1482,9 +1562,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1"/>
-      <c r="B22" s="15">
-        <v>0</v>
-      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="2"/>
       <c r="D22" s="16"/>
       <c r="E22" s="15"/>
@@ -1497,9 +1575,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1"/>
-      <c r="B23" s="15">
-        <v>0</v>
-      </c>
+      <c r="B23" s="15"/>
       <c r="C23" s="2"/>
       <c r="D23" s="16"/>
       <c r="E23" s="15"/>
@@ -1512,9 +1588,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1"/>
-      <c r="B24" s="15">
-        <v>0</v>
-      </c>
+      <c r="B24" s="15"/>
       <c r="C24" s="2"/>
       <c r="D24" s="16"/>
       <c r="E24" s="15"/>
@@ -1527,9 +1601,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1"/>
-      <c r="B25" s="15">
-        <v>0</v>
-      </c>
+      <c r="B25" s="15"/>
       <c r="C25" s="2"/>
       <c r="D25" s="16"/>
       <c r="E25" s="15"/>
@@ -1542,9 +1614,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1"/>
-      <c r="B26" s="15">
-        <v>0</v>
-      </c>
+      <c r="B26" s="15"/>
       <c r="C26" s="2"/>
       <c r="D26" s="16"/>
       <c r="E26" s="15"/>
@@ -1557,9 +1627,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1"/>
-      <c r="B27" s="15">
-        <v>0</v>
-      </c>
+      <c r="B27" s="15"/>
       <c r="C27" s="2"/>
       <c r="D27" s="16"/>
       <c r="E27" s="15"/>
@@ -1572,9 +1640,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1"/>
-      <c r="B28" s="15">
-        <v>0</v>
-      </c>
+      <c r="B28" s="15"/>
       <c r="C28" s="2"/>
       <c r="D28" s="16"/>
       <c r="E28" s="15"/>
@@ -1587,9 +1653,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1"/>
-      <c r="B29" s="15">
-        <v>0</v>
-      </c>
+      <c r="B29" s="15"/>
       <c r="C29" s="2"/>
       <c r="D29" s="16"/>
       <c r="E29" s="15"/>
@@ -1602,9 +1666,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1"/>
-      <c r="B30" s="15">
-        <v>0</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="2"/>
       <c r="D30" s="16"/>
       <c r="E30" s="15"/>
@@ -1617,9 +1679,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1"/>
-      <c r="B31" s="15">
-        <v>0</v>
-      </c>
+      <c r="B31" s="15"/>
       <c r="C31" s="2"/>
       <c r="D31" s="16"/>
       <c r="E31" s="15"/>
@@ -1632,9 +1692,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1"/>
-      <c r="B32" s="15">
-        <v>0</v>
-      </c>
+      <c r="B32" s="15"/>
       <c r="C32" s="2"/>
       <c r="D32" s="16"/>
       <c r="E32" s="15"/>
@@ -1647,9 +1705,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1"/>
-      <c r="B33" s="15">
-        <v>0</v>
-      </c>
+      <c r="B33" s="15"/>
       <c r="C33" s="2"/>
       <c r="D33" s="16"/>
       <c r="E33" s="15"/>
@@ -1662,9 +1718,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
-      <c r="B34" s="15">
-        <v>0</v>
-      </c>
+      <c r="B34" s="15"/>
       <c r="C34" s="2"/>
       <c r="D34" s="16"/>
       <c r="E34" s="15"/>
@@ -1677,9 +1731,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1"/>
-      <c r="B35" s="15">
-        <v>0</v>
-      </c>
+      <c r="B35" s="15"/>
       <c r="C35" s="2"/>
       <c r="D35" s="16"/>
       <c r="E35" s="15"/>
@@ -1692,9 +1744,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1"/>
-      <c r="B36" s="15">
-        <v>0</v>
-      </c>
+      <c r="B36" s="15"/>
       <c r="C36" s="2"/>
       <c r="D36" s="16"/>
       <c r="E36" s="15"/>
@@ -1707,9 +1757,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
-      <c r="B37" s="15">
-        <v>0</v>
-      </c>
+      <c r="B37" s="15"/>
       <c r="C37" s="2"/>
       <c r="D37" s="16"/>
       <c r="E37" s="15"/>
@@ -1722,9 +1770,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
-      <c r="B38" s="15">
-        <v>0</v>
-      </c>
+      <c r="B38" s="15"/>
       <c r="C38" s="2"/>
       <c r="D38" s="16"/>
       <c r="E38" s="15"/>
@@ -1737,9 +1783,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1"/>
-      <c r="B39" s="15">
-        <v>0</v>
-      </c>
+      <c r="B39" s="15"/>
       <c r="C39" s="2"/>
       <c r="D39" s="16"/>
       <c r="E39" s="15"/>
@@ -1752,9 +1796,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1"/>
-      <c r="B40" s="15">
-        <v>0</v>
-      </c>
+      <c r="B40" s="15"/>
       <c r="C40" s="2"/>
       <c r="D40" s="16"/>
       <c r="E40" s="15"/>
@@ -1767,9 +1809,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1"/>
-      <c r="B41" s="15">
-        <v>0</v>
-      </c>
+      <c r="B41" s="15"/>
       <c r="C41" s="2"/>
       <c r="D41" s="16"/>
       <c r="E41" s="15"/>
@@ -1782,9 +1822,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1"/>
-      <c r="B42" s="15">
-        <v>0</v>
-      </c>
+      <c r="B42" s="15"/>
       <c r="C42" s="2"/>
       <c r="D42" s="16"/>
       <c r="E42" s="15"/>
@@ -1797,9 +1835,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1"/>
-      <c r="B43" s="15">
-        <v>0</v>
-      </c>
+      <c r="B43" s="15"/>
       <c r="C43" s="2"/>
       <c r="D43" s="16"/>
       <c r="E43" s="15"/>
@@ -1812,9 +1848,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1"/>
-      <c r="B44" s="15">
-        <v>0</v>
-      </c>
+      <c r="B44" s="15"/>
       <c r="C44" s="2"/>
       <c r="D44" s="16"/>
       <c r="E44" s="15"/>
@@ -1827,9 +1861,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1"/>
-      <c r="B45" s="15">
-        <v>0</v>
-      </c>
+      <c r="B45" s="15"/>
       <c r="C45" s="2"/>
       <c r="D45" s="16"/>
       <c r="E45" s="15"/>
@@ -1842,9 +1874,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1"/>
-      <c r="B46" s="15">
-        <v>0</v>
-      </c>
+      <c r="B46" s="15"/>
       <c r="C46" s="2"/>
       <c r="D46" s="16"/>
       <c r="E46" s="15"/>
@@ -1857,9 +1887,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1"/>
-      <c r="B47" s="15">
-        <v>0</v>
-      </c>
+      <c r="B47" s="15"/>
       <c r="C47" s="2"/>
       <c r="D47" s="16"/>
       <c r="E47" s="15"/>
@@ -1872,9 +1900,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1"/>
-      <c r="B48" s="15">
-        <v>0</v>
-      </c>
+      <c r="B48" s="15"/>
       <c r="C48" s="2"/>
       <c r="D48" s="16"/>
       <c r="E48" s="15"/>
@@ -1887,9 +1913,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1"/>
-      <c r="B49" s="15">
-        <v>0</v>
-      </c>
+      <c r="B49" s="15"/>
       <c r="C49" s="2"/>
       <c r="D49" s="16"/>
       <c r="E49" s="15"/>
@@ -1902,9 +1926,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1"/>
-      <c r="B50" s="15">
-        <v>0</v>
-      </c>
+      <c r="B50" s="15"/>
       <c r="C50" s="2"/>
       <c r="D50" s="16"/>
       <c r="E50" s="15"/>
@@ -1917,9 +1939,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1"/>
-      <c r="B51" s="15">
-        <v>0</v>
-      </c>
+      <c r="B51" s="15"/>
       <c r="C51" s="2"/>
       <c r="D51" s="16"/>
       <c r="E51" s="15"/>
@@ -1932,9 +1952,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1"/>
-      <c r="B52" s="15">
-        <v>0</v>
-      </c>
+      <c r="B52" s="15"/>
       <c r="C52" s="2"/>
       <c r="D52" s="16"/>
       <c r="E52" s="15"/>
@@ -1947,9 +1965,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1"/>
-      <c r="B53" s="15">
-        <v>0</v>
-      </c>
+      <c r="B53" s="15"/>
       <c r="C53" s="2"/>
       <c r="D53" s="16"/>
       <c r="E53" s="15"/>
@@ -1962,9 +1978,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1"/>
-      <c r="B54" s="15">
-        <v>0</v>
-      </c>
+      <c r="B54" s="15"/>
       <c r="C54" s="2"/>
       <c r="D54" s="16"/>
       <c r="E54" s="15"/>
@@ -1977,9 +1991,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1"/>
-      <c r="B55" s="15">
-        <v>0</v>
-      </c>
+      <c r="B55" s="15"/>
       <c r="C55" s="2"/>
       <c r="D55" s="16"/>
       <c r="E55" s="15"/>
@@ -1992,9 +2004,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1"/>
-      <c r="B56" s="15">
-        <v>0</v>
-      </c>
+      <c r="B56" s="15"/>
       <c r="C56" s="2"/>
       <c r="D56" s="16"/>
       <c r="E56" s="15"/>
@@ -2007,9 +2017,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1"/>
-      <c r="B57" s="15">
-        <v>0</v>
-      </c>
+      <c r="B57" s="15"/>
       <c r="C57" s="2"/>
       <c r="D57" s="16"/>
       <c r="E57" s="15"/>
@@ -2022,9 +2030,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1"/>
-      <c r="B58" s="15">
-        <v>0</v>
-      </c>
+      <c r="B58" s="15"/>
       <c r="C58" s="2"/>
       <c r="D58" s="16"/>
       <c r="E58" s="15"/>
@@ -2037,9 +2043,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1"/>
-      <c r="B59" s="15">
-        <v>0</v>
-      </c>
+      <c r="B59" s="15"/>
       <c r="C59" s="2"/>
       <c r="D59" s="16"/>
       <c r="E59" s="15"/>
@@ -2052,9 +2056,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1"/>
-      <c r="B60" s="15">
-        <v>0</v>
-      </c>
+      <c r="B60" s="15"/>
       <c r="C60" s="2"/>
       <c r="D60" s="16"/>
       <c r="E60" s="15"/>
@@ -2067,9 +2069,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1"/>
-      <c r="B61" s="15">
-        <v>0</v>
-      </c>
+      <c r="B61" s="15"/>
       <c r="C61" s="2"/>
       <c r="D61" s="16"/>
       <c r="E61" s="15"/>
@@ -2082,9 +2082,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1"/>
-      <c r="B62" s="15">
-        <v>0</v>
-      </c>
+      <c r="B62" s="15"/>
       <c r="C62" s="2"/>
       <c r="D62" s="16"/>
       <c r="E62" s="15"/>
@@ -2097,9 +2095,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1"/>
-      <c r="B63" s="15">
-        <v>0</v>
-      </c>
+      <c r="B63" s="15"/>
       <c r="C63" s="2"/>
       <c r="D63" s="16"/>
       <c r="E63" s="15"/>
@@ -2112,9 +2108,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1"/>
-      <c r="B64" s="15">
-        <v>0</v>
-      </c>
+      <c r="B64" s="15"/>
       <c r="C64" s="2"/>
       <c r="D64" s="16"/>
       <c r="E64" s="15"/>
@@ -2127,9 +2121,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1"/>
-      <c r="B65" s="15">
-        <v>0</v>
-      </c>
+      <c r="B65" s="15"/>
       <c r="C65" s="2"/>
       <c r="D65" s="16"/>
       <c r="E65" s="15"/>
@@ -2142,9 +2134,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1"/>
-      <c r="B66" s="15">
-        <v>0</v>
-      </c>
+      <c r="B66" s="15"/>
       <c r="C66" s="2"/>
       <c r="D66" s="16"/>
       <c r="E66" s="15"/>
@@ -2157,9 +2147,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1"/>
-      <c r="B67" s="15">
-        <v>0</v>
-      </c>
+      <c r="B67" s="15"/>
       <c r="C67" s="2"/>
       <c r="D67" s="16"/>
       <c r="E67" s="15"/>
@@ -2172,9 +2160,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1"/>
-      <c r="B68" s="15">
-        <v>0</v>
-      </c>
+      <c r="B68" s="15"/>
       <c r="C68" s="2"/>
       <c r="D68" s="16"/>
       <c r="E68" s="15"/>
@@ -2187,9 +2173,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1"/>
-      <c r="B69" s="15">
-        <v>0</v>
-      </c>
+      <c r="B69" s="15"/>
       <c r="C69" s="2"/>
       <c r="D69" s="16"/>
       <c r="E69" s="15"/>
@@ -2202,9 +2186,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1"/>
-      <c r="B70" s="15">
-        <v>0</v>
-      </c>
+      <c r="B70" s="15"/>
       <c r="C70" s="2"/>
       <c r="D70" s="16"/>
       <c r="E70" s="15"/>
@@ -2217,9 +2199,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1"/>
-      <c r="B71" s="15">
-        <v>0</v>
-      </c>
+      <c r="B71" s="15"/>
       <c r="C71" s="2"/>
       <c r="D71" s="16"/>
       <c r="E71" s="15"/>
@@ -2232,9 +2212,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1"/>
-      <c r="B72" s="15">
-        <v>0</v>
-      </c>
+      <c r="B72" s="15"/>
       <c r="C72" s="2"/>
       <c r="D72" s="16"/>
       <c r="E72" s="15"/>
@@ -2247,9 +2225,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1"/>
-      <c r="B73" s="15">
-        <v>0</v>
-      </c>
+      <c r="B73" s="15"/>
       <c r="C73" s="2"/>
       <c r="D73" s="16"/>
       <c r="E73" s="15"/>
@@ -2262,9 +2238,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1"/>
-      <c r="B74" s="15">
-        <v>0</v>
-      </c>
+      <c r="B74" s="15"/>
       <c r="C74" s="2"/>
       <c r="D74" s="16"/>
       <c r="E74" s="15"/>
@@ -2277,9 +2251,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1"/>
-      <c r="B75" s="15">
-        <v>0</v>
-      </c>
+      <c r="B75" s="15"/>
       <c r="C75" s="2"/>
       <c r="D75" s="16"/>
       <c r="E75" s="15"/>
@@ -2292,9 +2264,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1"/>
-      <c r="B76" s="15">
-        <v>0</v>
-      </c>
+      <c r="B76" s="15"/>
       <c r="C76" s="2"/>
       <c r="D76" s="16"/>
       <c r="E76" s="15"/>
@@ -2307,9 +2277,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1"/>
-      <c r="B77" s="15">
-        <v>0</v>
-      </c>
+      <c r="B77" s="15"/>
       <c r="C77" s="2"/>
       <c r="D77" s="16"/>
       <c r="E77" s="15"/>
@@ -2322,9 +2290,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1"/>
-      <c r="B78" s="15">
-        <v>0</v>
-      </c>
+      <c r="B78" s="15"/>
       <c r="C78" s="2"/>
       <c r="D78" s="16"/>
       <c r="E78" s="15"/>
@@ -2337,9 +2303,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1"/>
-      <c r="B79" s="15">
-        <v>0</v>
-      </c>
+      <c r="B79" s="15"/>
       <c r="C79" s="2"/>
       <c r="D79" s="16"/>
       <c r="E79" s="15"/>
@@ -2352,9 +2316,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1"/>
-      <c r="B80" s="15">
-        <v>0</v>
-      </c>
+      <c r="B80" s="15"/>
       <c r="C80" s="2"/>
       <c r="D80" s="16"/>
       <c r="E80" s="15"/>
@@ -2367,9 +2329,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1"/>
-      <c r="B81" s="15">
-        <v>0</v>
-      </c>
+      <c r="B81" s="15"/>
       <c r="C81" s="2"/>
       <c r="D81" s="16"/>
       <c r="E81" s="15"/>
@@ -2382,9 +2342,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1"/>
-      <c r="B82" s="15">
-        <v>0</v>
-      </c>
+      <c r="B82" s="15"/>
       <c r="C82" s="2"/>
       <c r="D82" s="16"/>
       <c r="E82" s="15"/>
@@ -2397,9 +2355,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1"/>
-      <c r="B83" s="15">
-        <v>0</v>
-      </c>
+      <c r="B83" s="15"/>
       <c r="C83" s="2"/>
       <c r="D83" s="16"/>
       <c r="E83" s="15"/>
@@ -2412,9 +2368,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1"/>
-      <c r="B84" s="15">
-        <v>0</v>
-      </c>
+      <c r="B84" s="15"/>
       <c r="C84" s="2"/>
       <c r="D84" s="16"/>
       <c r="E84" s="15"/>
@@ -2427,9 +2381,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1"/>
-      <c r="B85" s="15">
-        <v>0</v>
-      </c>
+      <c r="B85" s="15"/>
       <c r="C85" s="2"/>
       <c r="D85" s="16"/>
       <c r="E85" s="15"/>
@@ -2442,9 +2394,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1"/>
-      <c r="B86" s="15">
-        <v>0</v>
-      </c>
+      <c r="B86" s="15"/>
       <c r="C86" s="2"/>
       <c r="D86" s="16"/>
       <c r="E86" s="15"/>
@@ -2457,9 +2407,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1"/>
-      <c r="B87" s="15">
-        <v>0</v>
-      </c>
+      <c r="B87" s="15"/>
       <c r="C87" s="2"/>
       <c r="D87" s="16"/>
       <c r="E87" s="15"/>
@@ -2472,9 +2420,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1"/>
-      <c r="B88" s="15">
-        <v>0</v>
-      </c>
+      <c r="B88" s="15"/>
       <c r="C88" s="2"/>
       <c r="D88" s="16"/>
       <c r="E88" s="15"/>
@@ -2487,9 +2433,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1"/>
-      <c r="B89" s="15">
-        <v>0</v>
-      </c>
+      <c r="B89" s="15"/>
       <c r="C89" s="2"/>
       <c r="D89" s="16"/>
       <c r="E89" s="15"/>
@@ -2502,9 +2446,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1"/>
-      <c r="B90" s="15">
-        <v>0</v>
-      </c>
+      <c r="B90" s="15"/>
       <c r="C90" s="2"/>
       <c r="D90" s="16"/>
       <c r="E90" s="15"/>
@@ -2517,9 +2459,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1"/>
-      <c r="B91" s="15">
-        <v>0</v>
-      </c>
+      <c r="B91" s="15"/>
       <c r="C91" s="2"/>
       <c r="D91" s="16"/>
       <c r="E91" s="15"/>
@@ -2532,9 +2472,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1"/>
-      <c r="B92" s="15">
-        <v>0</v>
-      </c>
+      <c r="B92" s="15"/>
       <c r="C92" s="2"/>
       <c r="D92" s="16"/>
       <c r="E92" s="15"/>
@@ -2547,9 +2485,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1"/>
-      <c r="B93" s="15">
-        <v>0</v>
-      </c>
+      <c r="B93" s="15"/>
       <c r="C93" s="2"/>
       <c r="D93" s="16"/>
       <c r="E93" s="15"/>
@@ -2562,9 +2498,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1"/>
-      <c r="B94" s="15">
-        <v>0</v>
-      </c>
+      <c r="B94" s="15"/>
       <c r="C94" s="2"/>
       <c r="D94" s="16"/>
       <c r="E94" s="15"/>
@@ -2577,9 +2511,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1"/>
-      <c r="B95" s="15">
-        <v>0</v>
-      </c>
+      <c r="B95" s="15"/>
       <c r="C95" s="2"/>
       <c r="D95" s="16"/>
       <c r="E95" s="15"/>
@@ -2592,9 +2524,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1"/>
-      <c r="B96" s="15">
-        <v>0</v>
-      </c>
+      <c r="B96" s="15"/>
       <c r="C96" s="2"/>
       <c r="D96" s="16"/>
       <c r="E96" s="15"/>
@@ -2607,9 +2537,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1"/>
-      <c r="B97" s="15">
-        <v>0</v>
-      </c>
+      <c r="B97" s="15"/>
       <c r="C97" s="2"/>
       <c r="D97" s="16"/>
       <c r="E97" s="15"/>
@@ -2622,9 +2550,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1"/>
-      <c r="B98" s="15">
-        <v>0</v>
-      </c>
+      <c r="B98" s="15"/>
       <c r="C98" s="2"/>
       <c r="D98" s="16"/>
       <c r="E98" s="15"/>
@@ -2637,9 +2563,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1"/>
-      <c r="B99" s="15">
-        <v>0</v>
-      </c>
+      <c r="B99" s="15"/>
       <c r="C99" s="2"/>
       <c r="D99" s="16"/>
       <c r="E99" s="15"/>
@@ -2652,9 +2576,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="1"/>
-      <c r="B100" s="15">
-        <v>0</v>
-      </c>
+      <c r="B100" s="15"/>
       <c r="C100" s="2"/>
       <c r="D100" s="16"/>
       <c r="E100" s="15"/>
@@ -2667,9 +2589,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="1"/>
-      <c r="B101" s="15">
-        <v>0</v>
-      </c>
+      <c r="B101" s="15"/>
       <c r="C101" s="2"/>
       <c r="D101" s="16"/>
       <c r="E101" s="15"/>
@@ -2682,9 +2602,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="1"/>
-      <c r="B102" s="15">
-        <v>0</v>
-      </c>
+      <c r="B102" s="15"/>
       <c r="C102" s="2"/>
       <c r="D102" s="16"/>
       <c r="E102" s="15"/>
@@ -2697,9 +2615,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="1"/>
-      <c r="B103" s="15">
-        <v>0</v>
-      </c>
+      <c r="B103" s="15"/>
       <c r="C103" s="2"/>
       <c r="D103" s="16"/>
       <c r="E103" s="15"/>
@@ -2712,9 +2628,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="1"/>
-      <c r="B104" s="15">
-        <v>0</v>
-      </c>
+      <c r="B104" s="15"/>
       <c r="C104" s="2"/>
       <c r="D104" s="16"/>
       <c r="E104" s="15"/>
@@ -2727,9 +2641,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="1"/>
-      <c r="B105" s="15">
-        <v>0</v>
-      </c>
+      <c r="B105" s="15"/>
       <c r="C105" s="2"/>
       <c r="D105" s="16"/>
       <c r="E105" s="15"/>
@@ -2742,9 +2654,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="1"/>
-      <c r="B106" s="15">
-        <v>0</v>
-      </c>
+      <c r="B106" s="15"/>
       <c r="C106" s="2"/>
       <c r="D106" s="16"/>
       <c r="E106" s="15"/>
@@ -2757,9 +2667,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="1"/>
-      <c r="B107" s="15">
-        <v>0</v>
-      </c>
+      <c r="B107" s="15"/>
       <c r="C107" s="2"/>
       <c r="D107" s="16"/>
       <c r="E107" s="15"/>
@@ -2772,9 +2680,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="1"/>
-      <c r="B108" s="15">
-        <v>0</v>
-      </c>
+      <c r="B108" s="15"/>
       <c r="C108" s="2"/>
       <c r="D108" s="16"/>
       <c r="E108" s="15"/>
@@ -2787,9 +2693,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="1"/>
-      <c r="B109" s="15">
-        <v>0</v>
-      </c>
+      <c r="B109" s="15"/>
       <c r="C109" s="2"/>
       <c r="D109" s="16"/>
       <c r="E109" s="15"/>
@@ -2802,9 +2706,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="1"/>
-      <c r="B110" s="15">
-        <v>0</v>
-      </c>
+      <c r="B110" s="15"/>
       <c r="C110" s="2"/>
       <c r="D110" s="16"/>
       <c r="E110" s="15"/>
@@ -2817,9 +2719,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="1"/>
-      <c r="B111" s="15">
-        <v>0</v>
-      </c>
+      <c r="B111" s="15"/>
       <c r="C111" s="2"/>
       <c r="D111" s="16"/>
       <c r="E111" s="15"/>
@@ -2832,9 +2732,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="1"/>
-      <c r="B112" s="15">
-        <v>0</v>
-      </c>
+      <c r="B112" s="15"/>
       <c r="C112" s="2"/>
       <c r="D112" s="16"/>
       <c r="E112" s="15"/>
@@ -2847,9 +2745,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1"/>
-      <c r="B113" s="15">
-        <v>0</v>
-      </c>
+      <c r="B113" s="15"/>
       <c r="C113" s="2"/>
       <c r="D113" s="16"/>
       <c r="E113" s="15"/>
@@ -2862,9 +2758,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1"/>
-      <c r="B114" s="15">
-        <v>0</v>
-      </c>
+      <c r="B114" s="15"/>
       <c r="C114" s="2"/>
       <c r="D114" s="16"/>
       <c r="E114" s="15"/>
@@ -2877,9 +2771,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1"/>
-      <c r="B115" s="15">
-        <v>0</v>
-      </c>
+      <c r="B115" s="15"/>
       <c r="C115" s="2"/>
       <c r="D115" s="16"/>
       <c r="E115" s="15"/>
@@ -2892,9 +2784,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1"/>
-      <c r="B116" s="15">
-        <v>0</v>
-      </c>
+      <c r="B116" s="15"/>
       <c r="C116" s="2"/>
       <c r="D116" s="16"/>
       <c r="E116" s="15"/>
@@ -2907,9 +2797,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1"/>
-      <c r="B117" s="15">
-        <v>0</v>
-      </c>
+      <c r="B117" s="15"/>
       <c r="C117" s="2"/>
       <c r="D117" s="16"/>
       <c r="E117" s="15"/>
@@ -2922,9 +2810,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1"/>
-      <c r="B118" s="15">
-        <v>0</v>
-      </c>
+      <c r="B118" s="15"/>
       <c r="C118" s="2"/>
       <c r="D118" s="16"/>
       <c r="E118" s="15"/>
@@ -2937,9 +2823,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1"/>
-      <c r="B119" s="15">
-        <v>0</v>
-      </c>
+      <c r="B119" s="15"/>
       <c r="C119" s="2"/>
       <c r="D119" s="16"/>
       <c r="E119" s="15"/>
@@ -2952,9 +2836,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="1"/>
-      <c r="B120" s="15">
-        <v>0</v>
-      </c>
+      <c r="B120" s="15"/>
       <c r="C120" s="2"/>
       <c r="D120" s="16"/>
       <c r="E120" s="15"/>
@@ -2967,9 +2849,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="1"/>
-      <c r="B121" s="15">
-        <v>0</v>
-      </c>
+      <c r="B121" s="15"/>
       <c r="C121" s="2"/>
       <c r="D121" s="16"/>
       <c r="E121" s="15"/>
@@ -2982,9 +2862,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="1"/>
-      <c r="B122" s="15">
-        <v>0</v>
-      </c>
+      <c r="B122" s="15"/>
       <c r="C122" s="2"/>
       <c r="D122" s="16"/>
       <c r="E122" s="15"/>
@@ -2997,9 +2875,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="1"/>
-      <c r="B123" s="15">
-        <v>0</v>
-      </c>
+      <c r="B123" s="15"/>
       <c r="C123" s="2"/>
       <c r="D123" s="16"/>
       <c r="E123" s="15"/>
@@ -3012,9 +2888,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="1"/>
-      <c r="B124" s="15">
-        <v>0</v>
-      </c>
+      <c r="B124" s="15"/>
       <c r="C124" s="2"/>
       <c r="D124" s="16"/>
       <c r="E124" s="15"/>
@@ -3027,9 +2901,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="1"/>
-      <c r="B125" s="15">
-        <v>0</v>
-      </c>
+      <c r="B125" s="15"/>
       <c r="C125" s="2"/>
       <c r="D125" s="16"/>
       <c r="E125" s="15"/>
@@ -3042,9 +2914,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="1"/>
-      <c r="B126" s="15">
-        <v>0</v>
-      </c>
+      <c r="B126" s="15"/>
       <c r="C126" s="2"/>
       <c r="D126" s="16"/>
       <c r="E126" s="15"/>
@@ -3057,9 +2927,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="1"/>
-      <c r="B127" s="15">
-        <v>0</v>
-      </c>
+      <c r="B127" s="15"/>
       <c r="C127" s="2"/>
       <c r="D127" s="16"/>
       <c r="E127" s="15"/>
@@ -3072,9 +2940,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="1"/>
-      <c r="B128" s="15">
-        <v>0</v>
-      </c>
+      <c r="B128" s="15"/>
       <c r="C128" s="2"/>
       <c r="D128" s="16"/>
       <c r="E128" s="15"/>
@@ -3087,9 +2953,7 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="1"/>
-      <c r="B129" s="15">
-        <v>0</v>
-      </c>
+      <c r="B129" s="15"/>
       <c r="C129" s="2"/>
       <c r="D129" s="16"/>
       <c r="E129" s="15"/>
@@ -3100,37 +2964,66 @@
       <c r="J129" s="15"/>
       <c r="K129" s="15"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+  <dataValidations disablePrompts="1" count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
@@ -3138,7 +3031,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3147,7 +3040,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -3156,7 +3049,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3169,7 +3062,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:C258"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3178,11 +3071,13 @@
     <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="20" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="5" customWidth="1"/>
-    <col min="4" max="1025" width="9.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="9.875" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" customHeight="1">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -3192,13 +3087,21 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3208,8 +3111,14 @@
       <c r="C3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3219,8 +3128,14 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3228,8 +3143,14 @@
       <c r="C5" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3237,899 +3158,1661 @@
       <c r="C6" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="D34" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="D35" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="D36" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="D37" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="D38" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="D39" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="8"/>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="D40" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="D41" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="D42" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="8"/>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="D43" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B44" s="8"/>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="D44" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="D45" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B46" s="8"/>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="D46" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="D47" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="D48" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="D49" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="D50" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="D51" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="D52" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="D53" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="D54" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="D55" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="D56" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="D57" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="D58" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="D59" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="D60" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="D61" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B62" s="8"/>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="D62" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B63" s="8"/>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="D63" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B64" s="8"/>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="D64" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B65" s="8"/>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="D65" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B66" s="8"/>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="D66" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="8"/>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="D67" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B68" s="8"/>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="D68" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="D69" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B70" s="8"/>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="D70" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B71" s="8"/>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="D71" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="D72" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B73" s="8"/>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="D73" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" s="24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B74" s="8"/>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="D74" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" s="24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="D75" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" s="24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B76" s="8"/>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="D76" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" s="24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B77" s="8"/>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="D77" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B78" s="8"/>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="D78" s="24">
+        <v>0</v>
+      </c>
+      <c r="E78" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B79" s="8"/>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="D79" s="24">
+        <v>2</v>
+      </c>
+      <c r="E79" s="24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B80" s="8"/>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="D80" s="24">
+        <v>4</v>
+      </c>
+      <c r="E80" s="24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="D81" s="24">
+        <v>5</v>
+      </c>
+      <c r="E81" s="24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B82" s="8"/>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="D82" s="24">
+        <v>7</v>
+      </c>
+      <c r="E82" s="24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="D83" s="24">
+        <v>9</v>
+      </c>
+      <c r="E83" s="24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B84" s="8"/>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="D84" s="24">
+        <v>11</v>
+      </c>
+      <c r="E84" s="24">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B85" s="8"/>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="D85" s="24">
+        <v>12</v>
+      </c>
+      <c r="E85" s="24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B86" s="8"/>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="D86" s="24">
+        <v>14</v>
+      </c>
+      <c r="E86" s="24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B87" s="8"/>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="D87" s="24">
+        <v>16</v>
+      </c>
+      <c r="E87" s="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B88" s="8"/>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="D88" s="24">
+        <v>17</v>
+      </c>
+      <c r="E88" s="24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B89" s="8"/>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="D89" s="24">
+        <v>19</v>
+      </c>
+      <c r="E89" s="24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B90" s="8"/>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="D90" s="24">
+        <v>21</v>
+      </c>
+      <c r="E90" s="24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B91" s="8"/>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="D91" s="24">
+        <v>23</v>
+      </c>
+      <c r="E91" s="24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B92" s="8"/>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="D92" s="24">
+        <v>24</v>
+      </c>
+      <c r="E92" s="24">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B93" s="8"/>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="D93" s="24">
+        <v>26</v>
+      </c>
+      <c r="E93" s="24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B94" s="8"/>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="D94" s="24">
+        <v>28</v>
+      </c>
+      <c r="E94" s="24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B95" s="8"/>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="D95" s="24">
+        <v>29</v>
+      </c>
+      <c r="E95" s="24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B96" s="8"/>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="D96" s="24">
+        <v>31</v>
+      </c>
+      <c r="E96" s="24">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B97" s="8"/>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="D97" s="24">
+        <v>33</v>
+      </c>
+      <c r="E97" s="24">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B98" s="8"/>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="D98" s="24">
+        <v>35</v>
+      </c>
+      <c r="E98" s="24">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B99" s="8"/>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="D99" s="24">
+        <v>36</v>
+      </c>
+      <c r="E99" s="24">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B100" s="8"/>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="D100" s="24">
+        <v>38</v>
+      </c>
+      <c r="E100" s="24">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B101" s="8"/>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="D101" s="24">
+        <v>40</v>
+      </c>
+      <c r="E101" s="24">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B102" s="8"/>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="D102" s="24">
+        <v>41</v>
+      </c>
+      <c r="E102" s="24">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B103" s="8"/>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="D103" s="24">
+        <v>43</v>
+      </c>
+      <c r="E103" s="24">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B104" s="8"/>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="D104" s="24">
+        <v>45</v>
+      </c>
+      <c r="E104" s="24">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B105" s="8"/>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="D105" s="24">
+        <v>47</v>
+      </c>
+      <c r="E105" s="24">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B106" s="8"/>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="D106" s="24">
+        <v>48</v>
+      </c>
+      <c r="E106" s="24">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B107" s="8"/>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="D107" s="24">
+        <v>50</v>
+      </c>
+      <c r="E107" s="24">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B108" s="8"/>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="D108" s="24">
+        <v>52</v>
+      </c>
+      <c r="E108" s="24">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B109" s="8"/>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="D109" s="24">
+        <v>53</v>
+      </c>
+      <c r="E109" s="23"/>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B110" s="8"/>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="D110" s="24">
+        <v>55</v>
+      </c>
+      <c r="E110" s="23"/>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B111" s="8"/>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="D111" s="24">
+        <v>57</v>
+      </c>
+      <c r="E111" s="23"/>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B112" s="8"/>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="D112" s="24">
+        <v>59</v>
+      </c>
+      <c r="E112" s="23"/>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B113" s="8"/>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="D113" s="24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B114" s="8"/>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="D114" s="24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B115" s="8"/>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="D115" s="24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B116" s="8"/>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="D116" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B117" s="8"/>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="D117" s="24">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B118" s="8"/>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="D118" s="24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B119" s="8"/>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="D119" s="24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B120" s="8"/>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="D120" s="24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B121" s="8"/>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="D121" s="24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B122" s="8"/>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="D122" s="24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B123" s="8"/>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="D123" s="24">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B124" s="8"/>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="D124" s="24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B125" s="8"/>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="D125" s="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B126" s="8"/>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="D126" s="24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B127" s="8"/>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="D127" s="24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B128" s="8"/>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="D128" s="24">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B129" s="8"/>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="D129" s="24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="D130" s="24">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="D131" s="24">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="D132" s="24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="D133" s="24">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="D134" s="24">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="D135" s="24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="D136" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="D137" s="24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="D138" s="24">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="D139" s="24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="D140" s="24">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="D141" s="24">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="D142" s="24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="D143" s="24">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="D144" s="24">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="D145" s="24">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="D146" s="24">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="D147" s="24">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="D148" s="24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="D149" s="24">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="D150" s="24">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="D151" s="24">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="D152" s="24">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="D153" s="23"/>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="D154" s="23"/>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="D155" s="23"/>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="D156" s="23"/>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="D157" s="23"/>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="D158" s="23"/>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="D159" s="23"/>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>29</v>
       </c>
+      <c r="D160" s="23"/>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1">
